--- a/doc/Bericht/05_Technischer Bericht/02_Projektmanagement/Risikomanagement.xlsx
+++ b/doc/Bericht/05_Technischer Bericht/02_Projektmanagement/Risikomanagement.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="225" windowWidth="11640" windowHeight="5400" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="30" windowWidth="12390" windowHeight="11955" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Änderungsgeschichte" sheetId="3" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Risikomanagement</t>
   </si>
@@ -62,60 +62,9 @@
     <t>Autor</t>
   </si>
   <si>
-    <t>dtreichl</t>
-  </si>
-  <si>
-    <t>Surface2 wird nicht rechtzeitig geliefert</t>
-  </si>
-  <si>
-    <t>Einarbeitung Surface</t>
-  </si>
-  <si>
-    <t>Michael Gfeller hat bereits Erfahrung mit Surface. Bei allfälligen Problemen kann und soll er um Rat angefragt werden.</t>
-  </si>
-  <si>
-    <t>Die Einarbeitung in Surface benötigt mehr Zeit als ursprünglich geplant.</t>
-  </si>
-  <si>
-    <t>Der Touchtisch kann nicht rechtzeitig geliefert werden. Somit ist das Testen von Touch und Tags etc. nicht möglich.</t>
-  </si>
-  <si>
     <t>Konzentration auf die wichtigsten Kernfunktionalitäten, ev. werden gewisse Funktionen weggelassen.</t>
   </si>
   <si>
-    <t>Der Funktionsumfang des Projektes wird wenn nötig reduziert.</t>
-  </si>
-  <si>
-    <t>PDF auf Surface darstellen kompliziert</t>
-  </si>
-  <si>
-    <t>Es ist kompliziert, ein PDF auf dem Surface darzustellen. Möglicherweise muss das PDF Dokument in ein anderes Format umgewandelt werden.</t>
-  </si>
-  <si>
-    <t>Das Problem wir früh angegangen und bereits im Architekturprototypen umgesetzt.</t>
-  </si>
-  <si>
-    <t>lemer</t>
-  </si>
-  <si>
-    <t>Umwandlung in anderen Dokumenttypen wird programmiert oder externe Hilfe wird angefordert.</t>
-  </si>
-  <si>
-    <t>lelmer</t>
-  </si>
-  <si>
-    <t>Review</t>
-  </si>
-  <si>
-    <t>cheidt</t>
-  </si>
-  <si>
-    <t>Alternative Testmethoden nutzen, um Testumgebung zu simulieren.</t>
-  </si>
-  <si>
-    <t>Keine, nicht möglich.</t>
-  </si>
-  <si>
     <t>Nr.</t>
   </si>
   <si>
@@ -128,43 +77,52 @@
     <t>Schadens-potenzial [h]</t>
   </si>
   <si>
-    <t>R4 bereinigt</t>
-  </si>
-  <si>
-    <t>Neues Risiko R5 gemäss Skype-Meeting</t>
-  </si>
-  <si>
-    <t>Neues Risiko R6</t>
-  </si>
-  <si>
-    <t>Neues Risiko R7, R2 Wahrscheinlichkeit von 20% auf 15% angepasst.</t>
-  </si>
-  <si>
-    <t>R1, R6 sind eingetreten und somit bereinigt, R2 ist mit den User Stories wahrscheinlicher geworden, Layout angepasst.</t>
-  </si>
-  <si>
-    <t>R7 bereinigt</t>
-  </si>
-  <si>
-    <t>Schadenspotenzial R2 angepasst, R3 bereinigt</t>
-  </si>
-  <si>
-    <t>keine Nachführung nötig gewesen</t>
-  </si>
-  <si>
-    <t>R2 bereinigt, keine Risiken mehr vorhanden</t>
-  </si>
-  <si>
     <t>Sprint neu</t>
   </si>
   <si>
     <t>Sprint bereinigt</t>
   </si>
   <si>
-    <t>R4 hinzugefügt + Werte angepasst</t>
-  </si>
-  <si>
     <t>Fehlein-schätzung des Zeitaufwands</t>
+  </si>
+  <si>
+    <t>Endgültige Hardware wird nicht rechtzeitig geliefert</t>
+  </si>
+  <si>
+    <t>Keine</t>
+  </si>
+  <si>
+    <t>Es wird ein alternatives Testsetup erarbeitet, mithilfe dessen die Arbeit getestet werden kann.</t>
+  </si>
+  <si>
+    <t>DT</t>
+  </si>
+  <si>
+    <t>Die Hardware für die Video Wall kann nicht   rechtzeitig geliefert werden.</t>
+  </si>
+  <si>
+    <t>Auflösung der Video Wall ungenügend</t>
+  </si>
+  <si>
+    <t>Die Auflösung der Video Wall ist für das Lesen der Bachelor Posters ungenügend</t>
+  </si>
+  <si>
+    <t>Suchen einer Lösung für die Erstellung der Video Wall, bei der jeder einzelne Monitor Full HD ist.</t>
+  </si>
+  <si>
+    <t>Darstellung der Posters in einer Grösse, die am besten lesbar ist.</t>
+  </si>
+  <si>
+    <t>Kinect erkennt Ausrichtung nicht</t>
+  </si>
+  <si>
+    <t>Kinect erkennt die seitliche Ausrichtung des Körpers der sich vor der Video Wall befindlichen Person nicht.</t>
+  </si>
+  <si>
+    <t>Testen der Erkennung der Ausrichtung mit vorhandenen Frameworks.</t>
+  </si>
+  <si>
+    <t>Es wird das Framework verwendet, welches die Position/Ausrichtung am besten erkennt. Da drei Frameworks zur Verfügung stehen ist die Wahrscheinlichkeit des Eintreffens dieses Risikos eher klein einzuschätzen.</t>
   </si>
 </sst>
 </file>
@@ -256,7 +214,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -276,32 +234,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -312,6 +258,95 @@
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="36">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -388,105 +423,16 @@
         </horizontal>
       </border>
     </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium5 2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="TableStyleMedium5 2" pivot="0" count="7">
-      <tableStyleElement type="wholeTable" dxfId="6"/>
-      <tableStyleElement type="headerRow" dxfId="5"/>
-      <tableStyleElement type="totalRow" dxfId="4"/>
-      <tableStyleElement type="firstColumn" dxfId="3"/>
-      <tableStyleElement type="lastColumn" dxfId="2"/>
-      <tableStyleElement type="firstRowStripe" dxfId="1"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
+      <tableStyleElement type="wholeTable" dxfId="35"/>
+      <tableStyleElement type="headerRow" dxfId="34"/>
+      <tableStyleElement type="totalRow" dxfId="33"/>
+      <tableStyleElement type="firstColumn" dxfId="32"/>
+      <tableStyleElement type="lastColumn" dxfId="31"/>
+      <tableStyleElement type="firstRowStripe" dxfId="30"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="29"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -509,30 +455,30 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A3:D15" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A3:D4" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
   <tableColumns count="4">
-    <tableColumn id="1" name="Datum" dataDxfId="33"/>
-    <tableColumn id="2" name="Version" dataDxfId="32"/>
-    <tableColumn id="3" name="Änderung" dataDxfId="31"/>
-    <tableColumn id="5" name="Autor" dataDxfId="30"/>
+    <tableColumn id="1" name="Datum" dataDxfId="26"/>
+    <tableColumn id="2" name="Version" dataDxfId="25"/>
+    <tableColumn id="3" name="Änderung" dataDxfId="24"/>
+    <tableColumn id="5" name="Autor" dataDxfId="23"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:J9" totalsRowCount="1" headerRowDxfId="9" dataDxfId="8" totalsRowDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:J9" totalsRowCount="1" headerRowDxfId="22" dataDxfId="21" totalsRowDxfId="20">
   <tableColumns count="10">
-    <tableColumn id="1" name="Nr." totalsRowLabel="Total" dataDxfId="29" totalsRowDxfId="28"/>
-    <tableColumn id="2" name="Risiko" dataDxfId="27" totalsRowDxfId="26"/>
-    <tableColumn id="3" name="Beschreibung" dataDxfId="25" totalsRowDxfId="24"/>
-    <tableColumn id="4" name="W'keit des Eintretens [%]" dataDxfId="23" totalsRowDxfId="22"/>
-    <tableColumn id="5" name="Schadens-potenzial [h]" totalsRowFunction="sum" dataDxfId="21" totalsRowDxfId="20"/>
-    <tableColumn id="6" name="Reserven [h]" totalsRowFunction="sum" dataDxfId="19" totalsRowDxfId="18"/>
-    <tableColumn id="7" name="Vermeidungs- und Verminderungsmassnahmen" dataDxfId="17" totalsRowDxfId="16"/>
-    <tableColumn id="8" name="Aktionen beim Eintreffen" dataDxfId="15" totalsRowDxfId="14"/>
-    <tableColumn id="10" name="Sprint neu" dataDxfId="13" totalsRowDxfId="12"/>
-    <tableColumn id="11" name="Sprint bereinigt" dataDxfId="11" totalsRowDxfId="10"/>
+    <tableColumn id="1" name="Nr." totalsRowLabel="Total" dataDxfId="19" totalsRowDxfId="9"/>
+    <tableColumn id="2" name="Risiko" dataDxfId="18" totalsRowDxfId="8"/>
+    <tableColumn id="3" name="Beschreibung" dataDxfId="17" totalsRowDxfId="7"/>
+    <tableColumn id="4" name="W'keit des Eintretens [%]" dataDxfId="16" totalsRowDxfId="6"/>
+    <tableColumn id="5" name="Schadens-potenzial [h]" totalsRowFunction="sum" dataDxfId="15" totalsRowDxfId="5"/>
+    <tableColumn id="6" name="Reserven [h]" totalsRowFunction="sum" dataDxfId="14" totalsRowDxfId="4"/>
+    <tableColumn id="7" name="Vermeidungs- und Verminderungsmassnahmen" dataDxfId="13" totalsRowDxfId="3"/>
+    <tableColumn id="8" name="Aktionen beim Eintreffen" dataDxfId="12" totalsRowDxfId="2"/>
+    <tableColumn id="10" name="Sprint neu" dataDxfId="11" totalsRowDxfId="1"/>
+    <tableColumn id="11" name="Sprint bereinigt" dataDxfId="10" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -825,10 +771,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -839,21 +785,27 @@
     <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:10" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
@@ -867,175 +819,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
-        <v>40809</v>
-      </c>
-      <c r="B4" s="13">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>40962</v>
+      </c>
+      <c r="B4" s="9">
         <v>1</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
-        <v>40811</v>
-      </c>
-      <c r="B5" s="13">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
-        <v>40811</v>
-      </c>
-      <c r="B6" s="13">
-        <v>1.2</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
-        <v>40816</v>
-      </c>
-      <c r="B7" s="13">
-        <v>1.3</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
-        <v>40819</v>
-      </c>
-      <c r="B8" s="13">
-        <v>1.4</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
-        <v>37180</v>
-      </c>
-      <c r="B9" s="13">
-        <v>1.5</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
-        <v>40833</v>
-      </c>
-      <c r="B10" s="13">
-        <v>1.6</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="10">
-        <v>40839</v>
-      </c>
-      <c r="B11" s="14">
-        <v>1.7</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="10">
-        <v>40847</v>
-      </c>
-      <c r="B12" s="14">
-        <v>1.8</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="10">
-        <v>40861</v>
-      </c>
-      <c r="B13" s="14">
-        <v>1.9</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="10">
-        <v>40875</v>
-      </c>
-      <c r="B14" s="12">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="10">
-        <v>40890</v>
-      </c>
-      <c r="B15" s="12">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <tableParts count="1">
@@ -1050,7 +851,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1068,22 +869,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
     </row>
     <row r="3" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>1</v>
@@ -1091,13 +892,13 @@
       <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" s="8" t="s">
+      <c r="D3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>3</v>
       </c>
       <c r="G3" s="4" t="s">
@@ -1107,24 +908,24 @@
         <v>5</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D4" s="4">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E4" s="4">
         <v>0</v>
@@ -1133,116 +934,108 @@
         <v>0</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="I4" s="4">
-        <v>1</v>
-      </c>
-      <c r="J4" s="4">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E5" s="4">
         <v>20</v>
       </c>
       <c r="F5" s="4">
         <f t="shared" ref="F5:F7" si="0">(D5/100)*E5</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>11</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="I5" s="4">
-        <v>1</v>
-      </c>
-      <c r="J5" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="J5" s="4"/>
+    </row>
+    <row r="6" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="D6" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E6" s="4">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F6" s="4">
         <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="4">
         <v>0</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6" s="4">
-        <v>1</v>
-      </c>
-      <c r="J6" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="135" x14ac:dyDescent="0.25">
+      <c r="J6" s="4"/>
+    </row>
+    <row r="7" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D7" s="4">
+        <v>30</v>
+      </c>
+      <c r="E7" s="4">
         <v>0</v>
-      </c>
-      <c r="E7" s="4">
-        <v>50</v>
       </c>
       <c r="F7" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I7" s="4">
-        <v>1</v>
-      </c>
-      <c r="J7" s="4">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J7" s="4"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
@@ -1258,18 +1051,18 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4">
         <f>SUBTOTAL(109,Table1[Schadens-potenzial '[h']])</f>
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="F9" s="4">
         <f>SUBTOTAL(109,Table1[Reserven '[h']])</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>

--- a/doc/Bericht/05_Technischer Bericht/02_Projektmanagement/Risikomanagement.xlsx
+++ b/doc/Bericht/05_Technischer Bericht/02_Projektmanagement/Risikomanagement.xlsx
@@ -122,7 +122,7 @@
     <t>Testen der Erkennung der Ausrichtung mit vorhandenen Frameworks.</t>
   </si>
   <si>
-    <t>Es wird das Framework verwendet, welches die Position/Ausrichtung am besten erkennt. Da drei Frameworks zur Verfügung stehen ist die Wahrscheinlichkeit des Eintreffens dieses Risikos eher klein einzuschätzen.</t>
+    <t>Das initiale Interaktionskonzept muss neu überdacht werden.</t>
   </si>
 </sst>
 </file>
@@ -851,7 +851,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -975,7 +975,7 @@
       </c>
       <c r="J5" s="4"/>
     </row>
-    <row r="6" spans="1:10" ht="165" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>3</v>
       </c>

--- a/doc/Bericht/05_Technischer Bericht/02_Projektmanagement/Risikomanagement.xlsx
+++ b/doc/Bericht/05_Technischer Bericht/02_Projektmanagement/Risikomanagement.xlsx
@@ -11,14 +11,14 @@
     <sheet name="Risiken" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Risiken!$A$3:$H$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Risiken!$A$3:$H$11</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
   <si>
     <t>Risikomanagement</t>
   </si>
@@ -53,9 +53,6 @@
     <t>Erste Version des Dokuments</t>
   </si>
   <si>
-    <t>Kontinuierliche Überprüfung der Projektplanung und eventuelle Anpassung. Verantwortung für aktuellen Projektplan an einem Teammitglied zuweisen.</t>
-  </si>
-  <si>
     <t>Der Aufwand wurde falsch eingeschätzt. Somit stimmt der Projektplan nicht.</t>
   </si>
   <si>
@@ -89,12 +86,6 @@
     <t>Endgültige Hardware wird nicht rechtzeitig geliefert</t>
   </si>
   <si>
-    <t>Keine</t>
-  </si>
-  <si>
-    <t>Es wird ein alternatives Testsetup erarbeitet, mithilfe dessen die Arbeit getestet werden kann.</t>
-  </si>
-  <si>
     <t>DT</t>
   </si>
   <si>
@@ -110,29 +101,77 @@
     <t>Suchen einer Lösung für die Erstellung der Video Wall, bei der jeder einzelne Monitor Full HD ist.</t>
   </si>
   <si>
-    <t>Darstellung der Posters in einer Grösse, die am besten lesbar ist.</t>
-  </si>
-  <si>
-    <t>Kinect erkennt Ausrichtung nicht</t>
-  </si>
-  <si>
-    <t>Kinect erkennt die seitliche Ausrichtung des Körpers der sich vor der Video Wall befindlichen Person nicht.</t>
-  </si>
-  <si>
-    <t>Testen der Erkennung der Ausrichtung mit vorhandenen Frameworks.</t>
-  </si>
-  <si>
-    <t>Das initiale Interaktionskonzept muss neu überdacht werden.</t>
+    <t>Frühe Anfrage, frühe Abklärungen durch Markus Stolze / Schulleitung.</t>
+  </si>
+  <si>
+    <t>Scrum, Früher Prototyp, kleine Demoprogramme zu Beginn des Projektes. Kontinuierliche Überprüfung der Projektplanung und eventuelle Anpassung. Verantwortung für aktuellen Projektplan an einem Teammitglied zuweisen.</t>
+  </si>
+  <si>
+    <t>Kinect: Seitliche Erkennung</t>
+  </si>
+  <si>
+    <t>Kinect erkennt Menschen nicht, die sich seitlich vor der Video Wall bewegen.</t>
+  </si>
+  <si>
+    <t>Kinect: Menschliche Drehung</t>
+  </si>
+  <si>
+    <t>Kinect erkennt nicht, wenn sich Personen vor der Videowall drehen.</t>
+  </si>
+  <si>
+    <t>Testen der Erkennung mit vorhandenen Frameworks.</t>
+  </si>
+  <si>
+    <t>Sich bewegende, aber nicht erkannte Personen, müssen manuell erkannt werden. Dies ist schwierig und mathematisch kompliziert.</t>
+  </si>
+  <si>
+    <t>Testen der Drehung mit vorhandenen Frameworks.</t>
+  </si>
+  <si>
+    <t>Das Interaktionskonzept muss  überdacht werden.</t>
+  </si>
+  <si>
+    <t>App verbessern.</t>
+  </si>
+  <si>
+    <t>Leichte Usability Test Korrekturen</t>
+  </si>
+  <si>
+    <t>Die Usability Tests fallen so aus, dass Teile der App leicht anders programmiert werden müssen.</t>
+  </si>
+  <si>
+    <t>Die Usability Tests fallen so aus, dass grosse Teile der App anders programmiert, das Interaktionskonzept überarbeitet und die Usability Tests wiederholt werden müssen.</t>
+  </si>
+  <si>
+    <t>Schwere Usability Test Korrekturen (zusätzlich zu Risiko 6)</t>
+  </si>
+  <si>
+    <t>Gut auf die Usability Tests vorbereiten, Tests vor Ausführung mit Testpersonen selbst testen und evt. korrigieren.</t>
+  </si>
+  <si>
+    <t>Interaktionskonzept und App verbessern. Usability Tests wiederholen.</t>
+  </si>
+  <si>
+    <t>Es wird ein alternatives Testsetup evaluiert, mithilfe dessen die Arbeit getestet werden kann.</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>LE</t>
+  </si>
+  <si>
+    <t>Neue Risiken hinzugefügt (4,6,7), Schätzungen angepasst, Beschreibungen erweitert</t>
+  </si>
+  <si>
+    <t>Darstellung der Posters in einer Grösse, die gut lesbar ist. Usability Tests müssen wiederholt werden. Alternative (2h Aufwand): Zu kleine Texte / Dokumente dürfen nicht hochgeladen / angezeigt werden (Constraint einführen).</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0"/>
-  </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -178,6 +217,14 @@
       <family val="1"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -214,7 +261,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -240,10 +287,27 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -334,7 +398,7 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
+      <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -455,7 +519,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A3:D4" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A3:D5" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
   <tableColumns count="4">
     <tableColumn id="1" name="Datum" dataDxfId="26"/>
     <tableColumn id="2" name="Version" dataDxfId="25"/>
@@ -467,7 +531,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:J9" totalsRowCount="1" headerRowDxfId="22" dataDxfId="21" totalsRowDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:J12" totalsRowCount="1" headerRowDxfId="22" dataDxfId="21" totalsRowDxfId="20">
   <tableColumns count="10">
     <tableColumn id="1" name="Nr." totalsRowLabel="Total" dataDxfId="19" totalsRowDxfId="9"/>
     <tableColumn id="2" name="Risiko" dataDxfId="18" totalsRowDxfId="8"/>
@@ -771,37 +835,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.5703125" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" style="17" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="67.42578125" customWidth="1"/>
     <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
-      <c r="B2" s="3"/>
+      <c r="B2" s="13"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
     </row>
@@ -809,28 +873,42 @@
       <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="14" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>40962</v>
       </c>
-      <c r="B4" s="9">
-        <v>1</v>
+      <c r="B4" s="15" t="s">
+        <v>45</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
+        <v>40966</v>
+      </c>
+      <c r="B5" s="16">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -848,43 +926,44 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Tabelle2"/>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.42578125" customWidth="1"/>
     <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" customWidth="1"/>
+    <col min="3" max="3" width="28.5703125" customWidth="1"/>
     <col min="4" max="4" width="10.5703125" customWidth="1"/>
     <col min="5" max="5" width="10.28515625" customWidth="1"/>
     <col min="6" max="6" width="9.85546875" customWidth="1"/>
-    <col min="7" max="7" width="19.5703125" customWidth="1"/>
-    <col min="8" max="8" width="21.85546875" customWidth="1"/>
+    <col min="7" max="7" width="47.140625" customWidth="1"/>
+    <col min="8" max="8" width="36.28515625" customWidth="1"/>
     <col min="9" max="9" width="8.28515625" customWidth="1"/>
     <col min="10" max="10" width="9.140625" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
     </row>
     <row r="3" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>1</v>
@@ -893,10 +972,10 @@
         <v>2</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>3</v>
@@ -908,10 +987,10 @@
         <v>5</v>
       </c>
       <c r="I3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="75" x14ac:dyDescent="0.25">
@@ -919,81 +998,84 @@
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D4" s="4">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E4" s="4">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F4" s="4">
-        <v>0</v>
+        <f t="shared" ref="F4:F9" si="0">(D4/100)*E4</f>
+        <v>25</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="I4" s="4">
-        <v>0</v>
-      </c>
-      <c r="J4" s="4"/>
-    </row>
-    <row r="5" spans="1:10" ht="165" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="J4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" s="4">
         <v>10</v>
       </c>
       <c r="E5" s="4">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F5" s="4">
-        <f t="shared" ref="F5:F7" si="0">(D5/100)*E5</f>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I5" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" s="4"/>
     </row>
-    <row r="6" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D6" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E6" s="4">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="F6" s="4">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>33</v>
@@ -1002,102 +1084,165 @@
         <v>34</v>
       </c>
       <c r="I6" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" s="4"/>
     </row>
-    <row r="7" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D7" s="4">
+        <v>15</v>
+      </c>
+      <c r="E7" s="4">
         <v>30</v>
       </c>
-      <c r="E7" s="4">
-        <v>0</v>
-      </c>
       <c r="F7" s="4">
+        <f t="shared" ref="F7" si="1">(D7/100)*E7</f>
+        <v>4.5</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" s="4">
+        <v>1</v>
+      </c>
+      <c r="J7" s="4"/>
+    </row>
+    <row r="8" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>5</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="4">
+        <v>10</v>
+      </c>
+      <c r="E8" s="4">
+        <v>60</v>
+      </c>
+      <c r="F8" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I8" s="4">
+        <v>1</v>
+      </c>
+      <c r="J8" s="4"/>
+    </row>
+    <row r="9" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>6</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="4">
         <v>30</v>
       </c>
-      <c r="I7" s="4">
-        <v>0</v>
-      </c>
-      <c r="J7" s="4"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
       <c r="E9" s="4">
+        <v>20</v>
+      </c>
+      <c r="F9" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9" s="4">
+        <v>2</v>
+      </c>
+      <c r="J9" s="4"/>
+    </row>
+    <row r="10" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>7</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="4">
+        <v>10</v>
+      </c>
+      <c r="E10" s="4">
+        <v>60</v>
+      </c>
+      <c r="F10" s="4">
+        <f t="shared" ref="F10" si="2">(D10/100)*E10</f>
+        <v>6</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I10" s="4">
+        <v>2</v>
+      </c>
+      <c r="J10" s="4"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4">
         <f>SUBTOTAL(109,Table1[Schadens-potenzial '[h']])</f>
-        <v>40</v>
-      </c>
-      <c r="F9" s="4">
+        <v>335</v>
+      </c>
+      <c r="F12" s="4">
         <f>SUBTOTAL(109,Table1[Reserven '[h']])</f>
-        <v>4</v>
-      </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
+        <v>57</v>
+      </c>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
@@ -1118,6 +1263,36 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/doc/Bericht/05_Technischer Bericht/02_Projektmanagement/Risikomanagement.xlsx
+++ b/doc/Bericht/05_Technischer Bericht/02_Projektmanagement/Risikomanagement.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="30" windowWidth="12390" windowHeight="11955" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="30" windowWidth="12390" windowHeight="11955"/>
   </bookViews>
   <sheets>
     <sheet name="Änderungsgeschichte" sheetId="3" r:id="rId1"/>
@@ -161,10 +161,11 @@
     <t>LE</t>
   </si>
   <si>
-    <t>Neue Risiken hinzugefügt (4,6,7), Schätzungen angepasst, Beschreibungen erweitert</t>
-  </si>
-  <si>
     <t>Darstellung der Posters in einer Grösse, die gut lesbar ist. Usability Tests müssen wiederholt werden. Alternative (2h Aufwand): Zu kleine Texte / Dokumente dürfen nicht hochgeladen / angezeigt werden (Constraint einführen).</t>
+  </si>
+  <si>
+    <t>Risiko 1 ist eingetreten: HW wird nicht rechtzeitig geliefert. Deshalb muss alternatives Testsetup evaluiert (Schaden: 25h).
+Neue Risiken hinzugefügt (4,6,7), Schätzungen angepasst, Beschreibungen erweitert</t>
   </si>
 </sst>
 </file>
@@ -316,10 +317,10 @@
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="20% - Accent4" xfId="3" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="2" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent4" xfId="3" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="Akzent4" xfId="2" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Überschrift" xfId="1" builtinId="15" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="36">
     <dxf>
@@ -549,9 +550,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Larissa">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -589,7 +590,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Larissa">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -661,7 +662,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Larissa">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -837,11 +838,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.5703125" customWidth="1"/>
     <col min="2" max="2" width="10.140625" style="17" bestFit="1" customWidth="1"/>
@@ -897,7 +898,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>40966</v>
       </c>
@@ -905,7 +906,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>46</v>
@@ -928,11 +929,11 @@
   <sheetPr codeName="Tabelle2"/>
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.42578125" customWidth="1"/>
     <col min="2" max="2" width="14.7109375" customWidth="1"/>
@@ -1143,7 +1144,7 @@
         <v>26</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I8" s="4">
         <v>1</v>

--- a/doc/Bericht/05_Technischer Bericht/02_Projektmanagement/Risikomanagement.xlsx
+++ b/doc/Bericht/05_Technischer Bericht/02_Projektmanagement/Risikomanagement.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="51">
   <si>
     <t>Risikomanagement</t>
   </si>
@@ -166,6 +166,12 @@
   <si>
     <t>Risiko 1 ist eingetreten: HW wird nicht rechtzeitig geliefert. Deshalb muss alternatives Testsetup evaluiert (Schaden: 25h).
 Neue Risiken hinzugefügt (4,6,7), Schätzungen angepasst, Beschreibungen erweitert</t>
+  </si>
+  <si>
+    <t>Auf neue Risiken geprüft, leichte Anpassung an der Eintrittswahrscheinlichkeit vom Riskio 5, da laut Matrox eine Auflösung von mehr als FullHD pro Monitorausgang möglich ist.</t>
+  </si>
+  <si>
+    <t>1.2</t>
   </si>
 </sst>
 </file>
@@ -520,7 +526,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A3:D5" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A3:D6" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
   <tableColumns count="4">
     <tableColumn id="1" name="Datum" dataDxfId="26"/>
     <tableColumn id="2" name="Version" dataDxfId="25"/>
@@ -836,10 +842,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -909,6 +915,20 @@
         <v>48</v>
       </c>
       <c r="D5" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
+        <v>40970</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>46</v>
       </c>
     </row>
@@ -929,8 +949,8 @@
   <sheetPr codeName="Tabelle2"/>
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1131,14 +1151,14 @@
         <v>25</v>
       </c>
       <c r="D8" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E8" s="4">
         <v>60</v>
       </c>
       <c r="F8" s="4">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>26</v>
@@ -1238,7 +1258,7 @@
       </c>
       <c r="F12" s="4">
         <f>SUBTOTAL(109,Table1[Reserven '[h']])</f>
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>

--- a/doc/Bericht/05_Technischer Bericht/02_Projektmanagement/Risikomanagement.xlsx
+++ b/doc/Bericht/05_Technischer Bericht/02_Projektmanagement/Risikomanagement.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="53">
   <si>
     <t>Risikomanagement</t>
   </si>
@@ -89,24 +89,15 @@
     <t>DT</t>
   </si>
   <si>
-    <t>Die Hardware für die Video Wall kann nicht   rechtzeitig geliefert werden.</t>
-  </si>
-  <si>
     <t>Auflösung der Video Wall ungenügend</t>
   </si>
   <si>
-    <t>Die Auflösung der Video Wall ist für das Lesen der Bachelor Posters ungenügend</t>
-  </si>
-  <si>
     <t>Suchen einer Lösung für die Erstellung der Video Wall, bei der jeder einzelne Monitor Full HD ist.</t>
   </si>
   <si>
     <t>Frühe Anfrage, frühe Abklärungen durch Markus Stolze / Schulleitung.</t>
   </si>
   <si>
-    <t>Scrum, Früher Prototyp, kleine Demoprogramme zu Beginn des Projektes. Kontinuierliche Überprüfung der Projektplanung und eventuelle Anpassung. Verantwortung für aktuellen Projektplan an einem Teammitglied zuweisen.</t>
-  </si>
-  <si>
     <t>Kinect: Seitliche Erkennung</t>
   </si>
   <si>
@@ -161,17 +152,32 @@
     <t>LE</t>
   </si>
   <si>
-    <t>Darstellung der Posters in einer Grösse, die gut lesbar ist. Usability Tests müssen wiederholt werden. Alternative (2h Aufwand): Zu kleine Texte / Dokumente dürfen nicht hochgeladen / angezeigt werden (Constraint einführen).</t>
-  </si>
-  <si>
-    <t>Risiko 1 ist eingetreten: HW wird nicht rechtzeitig geliefert. Deshalb muss alternatives Testsetup evaluiert (Schaden: 25h).
+    <t>Auf neue Risiken geprüft, leichte Anpassung an der Eintrittswahrscheinlichkeit vom Riskio 5, da laut Matrox eine Auflösung von mehr als FullHD pro Monitorausgang möglich ist.</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>Die Hardware für die Video Wall kann nicht  rechtzeitig geliefert werden.</t>
+  </si>
+  <si>
+    <t>Risiko 1 ist eingetreten: HW wird nicht rechtzeitig geliefert. Deshalb muss alternatives Testsetup evaluiert werden (Schaden: 25h).
 Neue Risiken hinzugefügt (4,6,7), Schätzungen angepasst, Beschreibungen erweitert</t>
   </si>
   <si>
-    <t>Auf neue Risiken geprüft, leichte Anpassung an der Eintrittswahrscheinlichkeit vom Riskio 5, da laut Matrox eine Auflösung von mehr als FullHD pro Monitorausgang möglich ist.</t>
-  </si>
-  <si>
-    <t>1.2</t>
+    <t>Scrum, früher Prototyp, kleine Demoprogramme zu Beginn des Projektes. Kontinuierliche Überprüfung der Projektplanung und eventuelle Anpassung. Verantwortung für aktuellen Projektplan an einem Teammitglied zuweisen.</t>
+  </si>
+  <si>
+    <t>Die Auflösung der Video Wall ist für das Lesen der Bachelor Posters ungenügend.</t>
+  </si>
+  <si>
+    <t>Darstellung der Poster in einer Grösse, die gut lesbar ist. Usability Tests müssen wiederholt werden. Alternative (2h Aufwand): Zu kleine Texte / Dokumente dürfen nicht hochgeladen / angezeigt werden (Constraint einführen).</t>
+  </si>
+  <si>
+    <t>1.3</t>
+  </si>
+  <si>
+    <t>Review, grammatikalische Korrekturen</t>
   </si>
 </sst>
 </file>
@@ -323,10 +329,10 @@
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="20 % - Akzent4" xfId="3" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="Akzent4" xfId="2" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Überschrift" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="3" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="2" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="36">
     <dxf>
@@ -526,7 +532,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A3:D6" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A3:D7" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
   <tableColumns count="4">
     <tableColumn id="1" name="Datum" dataDxfId="26"/>
     <tableColumn id="2" name="Version" dataDxfId="25"/>
@@ -556,9 +562,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -596,7 +602,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -668,7 +674,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -842,13 +848,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.5703125" customWidth="1"/>
     <col min="2" max="2" width="10.140625" style="17" bestFit="1" customWidth="1"/>
@@ -895,7 +901,7 @@
         <v>40962</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>10</v>
@@ -912,10 +918,10 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -923,13 +929,27 @@
         <v>40970</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
+        <v>40970</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -949,11 +969,11 @@
   <sheetPr codeName="Tabelle2"/>
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.42578125" customWidth="1"/>
     <col min="2" max="2" width="14.7109375" customWidth="1"/>
@@ -1022,7 +1042,7 @@
         <v>21</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="D4" s="4">
         <v>100</v>
@@ -1035,10 +1055,10 @@
         <v>25</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I4" s="4">
         <v>1</v>
@@ -1068,7 +1088,7 @@
         <v>5</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>13</v>
@@ -1083,10 +1103,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D6" s="4">
         <v>5</v>
@@ -1099,10 +1119,10 @@
         <v>4.5</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I6" s="4">
         <v>1</v>
@@ -1114,10 +1134,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D7" s="4">
         <v>15</v>
@@ -1130,13 +1150,13 @@
         <v>4.5</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I7" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J7" s="4"/>
     </row>
@@ -1145,10 +1165,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="D8" s="4">
         <v>5</v>
@@ -1161,10 +1181,10 @@
         <v>3</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I8" s="4">
         <v>1</v>
@@ -1176,10 +1196,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D9" s="4">
         <v>30</v>
@@ -1192,10 +1212,10 @@
         <v>6</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I9" s="4">
         <v>2</v>
@@ -1207,10 +1227,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D10" s="4">
         <v>10</v>
@@ -1223,10 +1243,10 @@
         <v>6</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I10" s="4">
         <v>2</v>

--- a/doc/Bericht/05_Technischer Bericht/02_Projektmanagement/Risikomanagement.xlsx
+++ b/doc/Bericht/05_Technischer Bericht/02_Projektmanagement/Risikomanagement.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="55">
   <si>
     <t>Risikomanagement</t>
   </si>
@@ -178,6 +178,12 @@
   </si>
   <si>
     <t>Review, grammatikalische Korrekturen</t>
+  </si>
+  <si>
+    <t>1.4</t>
+  </si>
+  <si>
+    <t>Review, keine Änderungen an den Risiken</t>
   </si>
 </sst>
 </file>
@@ -532,7 +538,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A3:D7" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A3:D8" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
   <tableColumns count="4">
     <tableColumn id="1" name="Datum" dataDxfId="26"/>
     <tableColumn id="2" name="Version" dataDxfId="25"/>
@@ -546,16 +552,16 @@
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:J12" totalsRowCount="1" headerRowDxfId="22" dataDxfId="21" totalsRowDxfId="20">
   <tableColumns count="10">
-    <tableColumn id="1" name="Nr." totalsRowLabel="Total" dataDxfId="19" totalsRowDxfId="9"/>
-    <tableColumn id="2" name="Risiko" dataDxfId="18" totalsRowDxfId="8"/>
-    <tableColumn id="3" name="Beschreibung" dataDxfId="17" totalsRowDxfId="7"/>
-    <tableColumn id="4" name="W'keit des Eintretens [%]" dataDxfId="16" totalsRowDxfId="6"/>
-    <tableColumn id="5" name="Schadens-potenzial [h]" totalsRowFunction="sum" dataDxfId="15" totalsRowDxfId="5"/>
-    <tableColumn id="6" name="Reserven [h]" totalsRowFunction="sum" dataDxfId="14" totalsRowDxfId="4"/>
-    <tableColumn id="7" name="Vermeidungs- und Verminderungsmassnahmen" dataDxfId="13" totalsRowDxfId="3"/>
-    <tableColumn id="8" name="Aktionen beim Eintreffen" dataDxfId="12" totalsRowDxfId="2"/>
-    <tableColumn id="10" name="Sprint neu" dataDxfId="11" totalsRowDxfId="1"/>
-    <tableColumn id="11" name="Sprint bereinigt" dataDxfId="10" totalsRowDxfId="0"/>
+    <tableColumn id="1" name="Nr." totalsRowLabel="Total" dataDxfId="19" totalsRowDxfId="18"/>
+    <tableColumn id="2" name="Risiko" dataDxfId="17" totalsRowDxfId="16"/>
+    <tableColumn id="3" name="Beschreibung" dataDxfId="15" totalsRowDxfId="14"/>
+    <tableColumn id="4" name="W'keit des Eintretens [%]" dataDxfId="13" totalsRowDxfId="12"/>
+    <tableColumn id="5" name="Schadens-potenzial [h]" totalsRowFunction="sum" dataDxfId="11" totalsRowDxfId="10"/>
+    <tableColumn id="6" name="Reserven [h]" totalsRowFunction="sum" dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="7" name="Vermeidungs- und Verminderungsmassnahmen" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="8" name="Aktionen beim Eintreffen" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="10" name="Sprint neu" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="11" name="Sprint bereinigt" dataDxfId="1" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -848,10 +854,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -950,6 +956,20 @@
       </c>
       <c r="D7" s="4" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
+        <v>40976</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -969,8 +989,8 @@
   <sheetPr codeName="Tabelle2"/>
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/doc/Bericht/05_Technischer Bericht/02_Projektmanagement/Risikomanagement.xlsx
+++ b/doc/Bericht/05_Technischer Bericht/02_Projektmanagement/Risikomanagement.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="57">
   <si>
     <t>Risikomanagement</t>
   </si>
@@ -184,6 +184,12 @@
   </si>
   <si>
     <t>Review, keine Änderungen an den Risiken</t>
+  </si>
+  <si>
+    <t>Risiko 3 ist bereinigt durch die Aufnahmen, die mit Kinect im Gebäude 4 durchgeführt wurden.</t>
+  </si>
+  <si>
+    <t>1.5</t>
   </si>
 </sst>
 </file>
@@ -538,7 +544,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A3:D8" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A3:D9" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
   <tableColumns count="4">
     <tableColumn id="1" name="Datum" dataDxfId="26"/>
     <tableColumn id="2" name="Version" dataDxfId="25"/>
@@ -552,16 +558,16 @@
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:J12" totalsRowCount="1" headerRowDxfId="22" dataDxfId="21" totalsRowDxfId="20">
   <tableColumns count="10">
-    <tableColumn id="1" name="Nr." totalsRowLabel="Total" dataDxfId="19" totalsRowDxfId="18"/>
-    <tableColumn id="2" name="Risiko" dataDxfId="17" totalsRowDxfId="16"/>
-    <tableColumn id="3" name="Beschreibung" dataDxfId="15" totalsRowDxfId="14"/>
-    <tableColumn id="4" name="W'keit des Eintretens [%]" dataDxfId="13" totalsRowDxfId="12"/>
-    <tableColumn id="5" name="Schadens-potenzial [h]" totalsRowFunction="sum" dataDxfId="11" totalsRowDxfId="10"/>
-    <tableColumn id="6" name="Reserven [h]" totalsRowFunction="sum" dataDxfId="9" totalsRowDxfId="8"/>
-    <tableColumn id="7" name="Vermeidungs- und Verminderungsmassnahmen" dataDxfId="7" totalsRowDxfId="6"/>
-    <tableColumn id="8" name="Aktionen beim Eintreffen" dataDxfId="5" totalsRowDxfId="4"/>
-    <tableColumn id="10" name="Sprint neu" dataDxfId="3" totalsRowDxfId="2"/>
-    <tableColumn id="11" name="Sprint bereinigt" dataDxfId="1" totalsRowDxfId="0"/>
+    <tableColumn id="1" name="Nr." totalsRowLabel="Total" dataDxfId="19" totalsRowDxfId="9"/>
+    <tableColumn id="2" name="Risiko" dataDxfId="18" totalsRowDxfId="8"/>
+    <tableColumn id="3" name="Beschreibung" dataDxfId="17" totalsRowDxfId="7"/>
+    <tableColumn id="4" name="W'keit des Eintretens [%]" dataDxfId="16" totalsRowDxfId="6"/>
+    <tableColumn id="5" name="Schadens-potenzial [h]" totalsRowFunction="sum" dataDxfId="15" totalsRowDxfId="5"/>
+    <tableColumn id="6" name="Reserven [h]" totalsRowFunction="sum" dataDxfId="14" totalsRowDxfId="4"/>
+    <tableColumn id="7" name="Vermeidungs- und Verminderungsmassnahmen" dataDxfId="13" totalsRowDxfId="3"/>
+    <tableColumn id="8" name="Aktionen beim Eintreffen" dataDxfId="12" totalsRowDxfId="2"/>
+    <tableColumn id="10" name="Sprint neu" dataDxfId="11" totalsRowDxfId="1"/>
+    <tableColumn id="11" name="Sprint bereinigt" dataDxfId="10" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -854,10 +860,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -970,6 +976,20 @@
       </c>
       <c r="D8" s="4" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
+        <v>40984</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -990,7 +1010,7 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1147,7 +1167,9 @@
       <c r="I6" s="4">
         <v>1</v>
       </c>
-      <c r="J6" s="4"/>
+      <c r="J6" s="4">
+        <v>4</v>
+      </c>
     </row>
     <row r="7" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="4">

--- a/doc/Bericht/05_Technischer Bericht/02_Projektmanagement/Risikomanagement.xlsx
+++ b/doc/Bericht/05_Technischer Bericht/02_Projektmanagement/Risikomanagement.xlsx
@@ -98,12 +98,6 @@
     <t>Frühe Anfrage, frühe Abklärungen durch Markus Stolze / Schulleitung.</t>
   </si>
   <si>
-    <t>Kinect: Seitliche Erkennung</t>
-  </si>
-  <si>
-    <t>Kinect erkennt Menschen nicht, die sich seitlich vor der Video Wall bewegen.</t>
-  </si>
-  <si>
     <t>Kinect: Menschliche Drehung</t>
   </si>
   <si>
@@ -186,10 +180,16 @@
     <t>Review, keine Änderungen an den Risiken</t>
   </si>
   <si>
-    <t>Risiko 3 ist bereinigt durch die Aufnahmen, die mit Kinect im Gebäude 4 durchgeführt wurden.</t>
-  </si>
-  <si>
     <t>1.5</t>
+  </si>
+  <si>
+    <t>Kinect erkennt Menschen nicht, die sich parallel zur Wand ausgerichtet vor der Video Wall bewegen.</t>
+  </si>
+  <si>
+    <t>Kinect: Erkennung von der Seite</t>
+  </si>
+  <si>
+    <t>Risiko 3: "Kinect: Erkennung von der Seite" ist bereinigt durch die Aufnahmen, die mit Kinect im Gebäude 4 durchgeführt wurden (siehe Dokument Vorstudie).</t>
   </si>
 </sst>
 </file>
@@ -558,16 +558,16 @@
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:J12" totalsRowCount="1" headerRowDxfId="22" dataDxfId="21" totalsRowDxfId="20">
   <tableColumns count="10">
-    <tableColumn id="1" name="Nr." totalsRowLabel="Total" dataDxfId="19" totalsRowDxfId="9"/>
-    <tableColumn id="2" name="Risiko" dataDxfId="18" totalsRowDxfId="8"/>
-    <tableColumn id="3" name="Beschreibung" dataDxfId="17" totalsRowDxfId="7"/>
-    <tableColumn id="4" name="W'keit des Eintretens [%]" dataDxfId="16" totalsRowDxfId="6"/>
-    <tableColumn id="5" name="Schadens-potenzial [h]" totalsRowFunction="sum" dataDxfId="15" totalsRowDxfId="5"/>
-    <tableColumn id="6" name="Reserven [h]" totalsRowFunction="sum" dataDxfId="14" totalsRowDxfId="4"/>
-    <tableColumn id="7" name="Vermeidungs- und Verminderungsmassnahmen" dataDxfId="13" totalsRowDxfId="3"/>
-    <tableColumn id="8" name="Aktionen beim Eintreffen" dataDxfId="12" totalsRowDxfId="2"/>
-    <tableColumn id="10" name="Sprint neu" dataDxfId="11" totalsRowDxfId="1"/>
-    <tableColumn id="11" name="Sprint bereinigt" dataDxfId="10" totalsRowDxfId="0"/>
+    <tableColumn id="1" name="Nr." totalsRowLabel="Total" dataDxfId="19" totalsRowDxfId="18"/>
+    <tableColumn id="2" name="Risiko" dataDxfId="17" totalsRowDxfId="16"/>
+    <tableColumn id="3" name="Beschreibung" dataDxfId="15" totalsRowDxfId="14"/>
+    <tableColumn id="4" name="W'keit des Eintretens [%]" dataDxfId="13" totalsRowDxfId="12"/>
+    <tableColumn id="5" name="Schadens-potenzial [h]" totalsRowFunction="sum" dataDxfId="11" totalsRowDxfId="10"/>
+    <tableColumn id="6" name="Reserven [h]" totalsRowFunction="sum" dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="7" name="Vermeidungs- und Verminderungsmassnahmen" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="8" name="Aktionen beim Eintreffen" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="10" name="Sprint neu" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="11" name="Sprint bereinigt" dataDxfId="1" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -863,7 +863,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -913,7 +913,7 @@
         <v>40962</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>10</v>
@@ -930,10 +930,10 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -941,13 +941,13 @@
         <v>40970</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -955,10 +955,10 @@
         <v>40970</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>22</v>
@@ -969,24 +969,24 @@
         <v>40976</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <v>40984</v>
       </c>
       <c r="B9" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="12" t="s">
         <v>56</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>55</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>22</v>
@@ -1010,7 +1010,7 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1082,7 +1082,7 @@
         <v>21</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D4" s="4">
         <v>100</v>
@@ -1098,7 +1098,7 @@
         <v>25</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I4" s="4">
         <v>1</v>
@@ -1128,7 +1128,7 @@
         <v>5</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>13</v>
@@ -1143,10 +1143,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="D6" s="4">
         <v>5</v>
@@ -1159,10 +1159,10 @@
         <v>4.5</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I6" s="4">
         <v>1</v>
@@ -1176,10 +1176,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D7" s="4">
         <v>15</v>
@@ -1192,10 +1192,10 @@
         <v>4.5</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I7" s="4">
         <v>2</v>
@@ -1210,7 +1210,7 @@
         <v>23</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D8" s="4">
         <v>5</v>
@@ -1226,7 +1226,7 @@
         <v>24</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I8" s="4">
         <v>1</v>
@@ -1238,10 +1238,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D9" s="4">
         <v>30</v>
@@ -1254,10 +1254,10 @@
         <v>6</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I9" s="4">
         <v>2</v>
@@ -1269,10 +1269,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D10" s="4">
         <v>10</v>
@@ -1285,10 +1285,10 @@
         <v>6</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I10" s="4">
         <v>2</v>

--- a/doc/Bericht/05_Technischer Bericht/02_Projektmanagement/Risikomanagement.xlsx
+++ b/doc/Bericht/05_Technischer Bericht/02_Projektmanagement/Risikomanagement.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="30" windowWidth="12390" windowHeight="11955"/>
+    <workbookView xWindow="-15" yWindow="30" windowWidth="12390" windowHeight="11955" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Änderungsgeschichte" sheetId="3" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="59">
   <si>
     <t>Risikomanagement</t>
   </si>
@@ -190,6 +190,12 @@
   </si>
   <si>
     <t>Risiko 3: "Kinect: Erkennung von der Seite" ist bereinigt durch die Aufnahmen, die mit Kinect im Gebäude 4 durchgeführt wurden (siehe Dokument Vorstudie).</t>
+  </si>
+  <si>
+    <t>WPF Applikationen laufen bei hoher Auflösung nicht flüssig</t>
+  </si>
+  <si>
+    <t>Die Applikation besitzt zwar die Wunschauflösung, diese ist aber dadurch sind Animationen nicht mehr flüssig und die Applikation stürzt im schlimmsten Fall ab.</t>
   </si>
 </sst>
 </file>
@@ -558,16 +564,16 @@
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:J12" totalsRowCount="1" headerRowDxfId="22" dataDxfId="21" totalsRowDxfId="20">
   <tableColumns count="10">
-    <tableColumn id="1" name="Nr." totalsRowLabel="Total" dataDxfId="19" totalsRowDxfId="18"/>
-    <tableColumn id="2" name="Risiko" dataDxfId="17" totalsRowDxfId="16"/>
-    <tableColumn id="3" name="Beschreibung" dataDxfId="15" totalsRowDxfId="14"/>
-    <tableColumn id="4" name="W'keit des Eintretens [%]" dataDxfId="13" totalsRowDxfId="12"/>
-    <tableColumn id="5" name="Schadens-potenzial [h]" totalsRowFunction="sum" dataDxfId="11" totalsRowDxfId="10"/>
-    <tableColumn id="6" name="Reserven [h]" totalsRowFunction="sum" dataDxfId="9" totalsRowDxfId="8"/>
-    <tableColumn id="7" name="Vermeidungs- und Verminderungsmassnahmen" dataDxfId="7" totalsRowDxfId="6"/>
-    <tableColumn id="8" name="Aktionen beim Eintreffen" dataDxfId="5" totalsRowDxfId="4"/>
-    <tableColumn id="10" name="Sprint neu" dataDxfId="3" totalsRowDxfId="2"/>
-    <tableColumn id="11" name="Sprint bereinigt" dataDxfId="1" totalsRowDxfId="0"/>
+    <tableColumn id="1" name="Nr." totalsRowLabel="Total" dataDxfId="19" totalsRowDxfId="9"/>
+    <tableColumn id="2" name="Risiko" dataDxfId="18" totalsRowDxfId="8"/>
+    <tableColumn id="3" name="Beschreibung" dataDxfId="17" totalsRowDxfId="7"/>
+    <tableColumn id="4" name="W'keit des Eintretens [%]" dataDxfId="16" totalsRowDxfId="6"/>
+    <tableColumn id="5" name="Schadens-potenzial [h]" totalsRowFunction="sum" dataDxfId="15" totalsRowDxfId="5"/>
+    <tableColumn id="6" name="Reserven [h]" totalsRowFunction="sum" dataDxfId="14" totalsRowDxfId="4"/>
+    <tableColumn id="7" name="Vermeidungs- und Verminderungsmassnahmen" dataDxfId="13" totalsRowDxfId="3"/>
+    <tableColumn id="8" name="Aktionen beim Eintreffen" dataDxfId="12" totalsRowDxfId="2"/>
+    <tableColumn id="10" name="Sprint neu" dataDxfId="11" totalsRowDxfId="1"/>
+    <tableColumn id="11" name="Sprint bereinigt" dataDxfId="10" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -862,7 +868,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -1009,8 +1015,8 @@
   <sheetPr codeName="Tabelle2"/>
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1295,10 +1301,16 @@
       </c>
       <c r="J10" s="4"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
+    <row r="11" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>8</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>

--- a/doc/Bericht/05_Technischer Bericht/02_Projektmanagement/Risikomanagement.xlsx
+++ b/doc/Bericht/05_Technischer Bericht/02_Projektmanagement/Risikomanagement.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="30" windowWidth="12390" windowHeight="11955" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="30" windowWidth="12390" windowHeight="11955"/>
   </bookViews>
   <sheets>
     <sheet name="Änderungsgeschichte" sheetId="3" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="65">
   <si>
     <t>Risikomanagement</t>
   </si>
@@ -196,13 +196,31 @@
   </si>
   <si>
     <t>Die Applikation besitzt zwar die Wunschauflösung, diese ist aber dadurch sind Animationen nicht mehr flüssig und die Applikation stürzt im schlimmsten Fall ab.</t>
+  </si>
+  <si>
+    <t>Auflösung verringern.</t>
+  </si>
+  <si>
+    <t>1.6</t>
+  </si>
+  <si>
+    <t>Neues Risiko 8</t>
+  </si>
+  <si>
+    <t>Bereits eingesetzte Reserven</t>
+  </si>
+  <si>
+    <t>Ausstehende Reserven, die geplant werden müssen</t>
+  </si>
+  <si>
+    <t>Testen, ob tiefere Auflösung auch funktionieren würde. Applikation entsprechend so programmieren, dass sie auch mit einer tieferer Auflösung funktionieren würde. Dadurch wird das Schadenspotzenzial auch viel tiefer; dies wäre ohne diese Massnahme viel grösser, da die App umprogrammiert werden müsste. Eingesetzte Zeit, um das Risiko zu vermeiden: 8h.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -256,6 +274,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -277,12 +304,101 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF5994CB"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF5994CB"/>
+      </right>
+      <top style="double">
+        <color rgb="FF5994CB"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF5994CB"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF5994CB"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color rgb="FF5994CB"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF5994CB"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color rgb="FF5994CB"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF5994CB"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF5994CB"/>
+      </right>
+      <top style="double">
+        <color rgb="FF5994CB"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF5994CB"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF5994CB"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color rgb="FF5994CB"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF5994CB"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color rgb="FF5994CB"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF5994CB"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF5994CB"/>
+      </right>
+      <top style="double">
+        <color rgb="FF5994CB"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF5994CB"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -292,7 +408,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -344,6 +460,38 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -550,7 +698,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A3:D9" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A3:D10" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
   <tableColumns count="4">
     <tableColumn id="1" name="Datum" dataDxfId="26"/>
     <tableColumn id="2" name="Version" dataDxfId="25"/>
@@ -562,10 +710,10 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:J12" totalsRowCount="1" headerRowDxfId="22" dataDxfId="21" totalsRowDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:J12" totalsRowCount="1" headerRowDxfId="21" dataDxfId="20" totalsRowDxfId="19">
   <tableColumns count="10">
-    <tableColumn id="1" name="Nr." totalsRowLabel="Total" dataDxfId="19" totalsRowDxfId="9"/>
-    <tableColumn id="2" name="Risiko" dataDxfId="18" totalsRowDxfId="8"/>
+    <tableColumn id="1" name="Nr." totalsRowLabel="Total" dataDxfId="18" totalsRowDxfId="9"/>
+    <tableColumn id="2" name="Risiko" dataDxfId="22" totalsRowDxfId="8"/>
     <tableColumn id="3" name="Beschreibung" dataDxfId="17" totalsRowDxfId="7"/>
     <tableColumn id="4" name="W'keit des Eintretens [%]" dataDxfId="16" totalsRowDxfId="6"/>
     <tableColumn id="5" name="Schadens-potenzial [h]" totalsRowFunction="sum" dataDxfId="15" totalsRowDxfId="5"/>
@@ -866,10 +1014,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -996,6 +1144,20 @@
       </c>
       <c r="D9" s="4" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
+        <v>40991</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1013,10 +1175,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Tabelle2"/>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1034,7 +1196,7 @@
     <col min="11" max="11" width="11.42578125" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -1048,7 +1210,7 @@
       <c r="I1" s="19"/>
       <c r="J1" s="19"/>
     </row>
-    <row r="3" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>14</v>
       </c>
@@ -1080,7 +1242,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -1113,7 +1275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>2</v>
       </c>
@@ -1144,7 +1306,7 @@
       </c>
       <c r="J5" s="4"/>
     </row>
-    <row r="6" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>3</v>
       </c>
@@ -1155,14 +1317,14 @@
         <v>54</v>
       </c>
       <c r="D6" s="4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E6" s="4">
         <v>90</v>
       </c>
       <c r="F6" s="4">
         <f t="shared" si="0"/>
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>28</v>
@@ -1177,7 +1339,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>4</v>
       </c>
@@ -1208,7 +1370,7 @@
       </c>
       <c r="J7" s="4"/>
     </row>
-    <row r="8" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>5</v>
       </c>
@@ -1239,7 +1401,7 @@
       </c>
       <c r="J8" s="4"/>
     </row>
-    <row r="9" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>6</v>
       </c>
@@ -1270,7 +1432,7 @@
       </c>
       <c r="J9" s="4"/>
     </row>
-    <row r="10" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>7</v>
       </c>
@@ -1287,7 +1449,7 @@
         <v>60</v>
       </c>
       <c r="F10" s="4">
-        <f t="shared" ref="F10" si="2">(D10/100)*E10</f>
+        <f t="shared" ref="F10:F11" si="2">(D10/100)*E10</f>
         <v>6</v>
       </c>
       <c r="G10" s="4" t="s">
@@ -1301,7 +1463,7 @@
       </c>
       <c r="J10" s="4"/>
     </row>
-    <row r="11" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>8</v>
       </c>
@@ -1311,15 +1473,28 @@
       <c r="C11" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
+      <c r="D11" s="4">
+        <v>100</v>
+      </c>
+      <c r="E11" s="4">
+        <v>8</v>
+      </c>
+      <c r="F11" s="4">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="I11" s="4">
+        <v>5</v>
+      </c>
       <c r="J11" s="4"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>16</v>
       </c>
@@ -1328,38 +1503,53 @@
       <c r="D12" s="4"/>
       <c r="E12" s="4">
         <f>SUBTOTAL(109,Table1[Schadens-potenzial '[h']])</f>
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="F12" s="4">
         <f>SUBTOTAL(109,Table1[Reserven '[h']])</f>
-        <v>54</v>
+        <v>57.5</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" s="23" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="27"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20">
+        <f>25+8</f>
+        <v>33</v>
+      </c>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="24"/>
+    </row>
+    <row r="14" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="30"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20">
+        <f>Table1[[#Totals],[Reserven '[h']]]-F13</f>
+        <v>24.5</v>
+      </c>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1369,7 +1559,7 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1380,18 +1570,30 @@
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
+      <c r="A17" s="21"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="25"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="21"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="25"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="5">
+    <mergeCell ref="A18:C18"/>
     <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A17:C17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/doc/Bericht/05_Technischer Bericht/02_Projektmanagement/Risikomanagement.xlsx
+++ b/doc/Bericht/05_Technischer Bericht/02_Projektmanagement/Risikomanagement.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="30" windowWidth="12390" windowHeight="11955"/>
+    <workbookView xWindow="-15" yWindow="30" windowWidth="12390" windowHeight="11955" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Änderungsgeschichte" sheetId="3" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="67">
   <si>
     <t>Risikomanagement</t>
   </si>
@@ -214,6 +214,12 @@
   </si>
   <si>
     <t>Testen, ob tiefere Auflösung auch funktionieren würde. Applikation entsprechend so programmieren, dass sie auch mit einer tieferer Auflösung funktionieren würde. Dadurch wird das Schadenspotzenzial auch viel tiefer; dies wäre ohne diese Massnahme viel grösser, da die App umprogrammiert werden müsste. Eingesetzte Zeit, um das Risiko zu vermeiden: 8h.</t>
+  </si>
+  <si>
+    <t>1.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Risiko 4 "Kinect: Menschliche Drehung" ist bereinigt. Zum jetztigen Projektzeitpunkt ist der Teaser, für welchen die Erkennung der Drehung relevant gewesen wäre, tief priorisiert. Er wird nicht mehr innerhalb des Zeitraums der BA implementiert werden können. </t>
   </si>
 </sst>
 </file>
@@ -455,17 +461,8 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -474,6 +471,15 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -698,7 +704,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A3:D10" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A3:D11" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
   <tableColumns count="4">
     <tableColumn id="1" name="Datum" dataDxfId="26"/>
     <tableColumn id="2" name="Version" dataDxfId="25"/>
@@ -710,10 +716,10 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:J12" totalsRowCount="1" headerRowDxfId="21" dataDxfId="20" totalsRowDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:J12" totalsRowCount="1" headerRowDxfId="22" dataDxfId="21" totalsRowDxfId="20">
   <tableColumns count="10">
-    <tableColumn id="1" name="Nr." totalsRowLabel="Total" dataDxfId="18" totalsRowDxfId="9"/>
-    <tableColumn id="2" name="Risiko" dataDxfId="22" totalsRowDxfId="8"/>
+    <tableColumn id="1" name="Nr." totalsRowLabel="Total" dataDxfId="19" totalsRowDxfId="9"/>
+    <tableColumn id="2" name="Risiko" dataDxfId="18" totalsRowDxfId="8"/>
     <tableColumn id="3" name="Beschreibung" dataDxfId="17" totalsRowDxfId="7"/>
     <tableColumn id="4" name="W'keit des Eintretens [%]" dataDxfId="16" totalsRowDxfId="6"/>
     <tableColumn id="5" name="Schadens-potenzial [h]" totalsRowFunction="sum" dataDxfId="15" totalsRowDxfId="5"/>
@@ -1014,10 +1020,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1029,12 +1035,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
       <c r="E1" s="9"/>
       <c r="F1" s="9"/>
       <c r="G1" s="9"/>
@@ -1158,6 +1164,20 @@
       </c>
       <c r="D10" s="4" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
+        <v>41001</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1177,8 +1197,8 @@
   <sheetPr codeName="Tabelle2"/>
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1197,18 +1217,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
     </row>
     <row r="3" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -1350,14 +1370,14 @@
         <v>27</v>
       </c>
       <c r="D7" s="4">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E7" s="4">
         <v>30</v>
       </c>
       <c r="F7" s="4">
         <f t="shared" ref="F7" si="1">(D7/100)*E7</f>
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>30</v>
@@ -1368,7 +1388,9 @@
       <c r="I7" s="4">
         <v>2</v>
       </c>
-      <c r="J7" s="4"/>
+      <c r="J7" s="4">
+        <v>6</v>
+      </c>
     </row>
     <row r="8" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
@@ -1507,30 +1529,30 @@
       </c>
       <c r="F12" s="4">
         <f>SUBTOTAL(109,Table1[Reserven '[h']])</f>
-        <v>57.5</v>
+        <v>53</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
     </row>
-    <row r="13" spans="1:11" s="23" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" s="20" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="26" t="s">
         <v>62</v>
       </c>
       <c r="B13" s="27"/>
       <c r="C13" s="28"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20">
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18">
         <f>25+8</f>
         <v>33</v>
       </c>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="24"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="21"/>
     </row>
     <row r="14" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
@@ -1538,16 +1560,16 @@
       </c>
       <c r="B14" s="30"/>
       <c r="C14" s="31"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20">
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18">
         <f>Table1[[#Totals],[Reserven '[h']]]-F13</f>
-        <v>24.5</v>
-      </c>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
+        <v>20</v>
+      </c>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
@@ -1570,22 +1592,22 @@
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="21"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="25"/>
+      <c r="A17" s="24"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="22"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="21"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
+      <c r="A18" s="24"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="25"/>
+      <c r="F18" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/doc/Bericht/05_Technischer Bericht/02_Projektmanagement/Risikomanagement.xlsx
+++ b/doc/Bericht/05_Technischer Bericht/02_Projektmanagement/Risikomanagement.xlsx
@@ -11,14 +11,14 @@
     <sheet name="Risiken" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Risiken!$A$3:$H$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Risiken!$A$3:$H$12</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="73">
   <si>
     <t>Risikomanagement</t>
   </si>
@@ -220,6 +220,24 @@
   </si>
   <si>
     <t xml:space="preserve">Risiko 4 "Kinect: Menschliche Drehung" ist bereinigt. Zum jetztigen Projektzeitpunkt ist der Teaser, für welchen die Erkennung der Drehung relevant gewesen wäre, tief priorisiert. Er wird nicht mehr innerhalb des Zeitraums der BA implementiert werden können. </t>
+  </si>
+  <si>
+    <t>WPF Performance ungenügend</t>
+  </si>
+  <si>
+    <t>WPF Performance ist für die Anwendung ungenügend, daher muss auf DirectX oder OpenGL ausgewichen werden.</t>
+  </si>
+  <si>
+    <t>Applikation so designen, dass die Performance nicht wichtig ist. Bsp. Geschickte Animationen, bei denen man nicht merkt, wenn sie langsam sind. Oder als Alternative: Auflösung verringern.</t>
+  </si>
+  <si>
+    <t>DirectX oder OpenGL einsetzen.</t>
+  </si>
+  <si>
+    <t>Neues Risiko 9</t>
+  </si>
+  <si>
+    <t>1.8</t>
   </si>
 </sst>
 </file>
@@ -704,7 +722,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A3:D11" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A3:D12" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
   <tableColumns count="4">
     <tableColumn id="1" name="Datum" dataDxfId="26"/>
     <tableColumn id="2" name="Version" dataDxfId="25"/>
@@ -716,7 +734,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:J12" totalsRowCount="1" headerRowDxfId="22" dataDxfId="21" totalsRowDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:J13" totalsRowCount="1" headerRowDxfId="22" dataDxfId="21" totalsRowDxfId="20">
   <tableColumns count="10">
     <tableColumn id="1" name="Nr." totalsRowLabel="Total" dataDxfId="19" totalsRowDxfId="9"/>
     <tableColumn id="2" name="Risiko" dataDxfId="18" totalsRowDxfId="8"/>
@@ -726,8 +744,8 @@
     <tableColumn id="6" name="Reserven [h]" totalsRowFunction="sum" dataDxfId="14" totalsRowDxfId="4"/>
     <tableColumn id="7" name="Vermeidungs- und Verminderungsmassnahmen" dataDxfId="13" totalsRowDxfId="3"/>
     <tableColumn id="8" name="Aktionen beim Eintreffen" dataDxfId="12" totalsRowDxfId="2"/>
-    <tableColumn id="10" name="Sprint neu" dataDxfId="11" totalsRowDxfId="1"/>
-    <tableColumn id="11" name="Sprint bereinigt" dataDxfId="10" totalsRowDxfId="0"/>
+    <tableColumn id="10" name="Sprint neu" totalsRowFunction="count" dataDxfId="11" totalsRowDxfId="0"/>
+    <tableColumn id="11" name="Sprint bereinigt" totalsRowFunction="count" dataDxfId="10" totalsRowDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1020,10 +1038,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1178,6 +1196,20 @@
       </c>
       <c r="D11" s="4" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
+        <v>41015</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1195,10 +1227,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Tabelle2"/>
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1471,7 +1503,7 @@
         <v>60</v>
       </c>
       <c r="F10" s="4">
-        <f t="shared" ref="F10:F11" si="2">(D10/100)*E10</f>
+        <f t="shared" ref="F10:F12" si="2">(D10/100)*E10</f>
         <v>6</v>
       </c>
       <c r="G10" s="4" t="s">
@@ -1514,72 +1546,101 @@
       <c r="I11" s="4">
         <v>5</v>
       </c>
-      <c r="J11" s="4"/>
-    </row>
-    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
+      <c r="J11" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>9</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="4">
+        <v>10</v>
+      </c>
+      <c r="E12" s="4">
+        <v>100</v>
+      </c>
+      <c r="F12" s="4">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="I12" s="4">
+        <v>7</v>
+      </c>
+      <c r="J12" s="4"/>
+    </row>
+    <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4">
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4">
         <f>SUBTOTAL(109,Table1[Schadens-potenzial '[h']])</f>
-        <v>343</v>
-      </c>
-      <c r="F12" s="4">
+        <v>443</v>
+      </c>
+      <c r="F13" s="4">
         <f>SUBTOTAL(109,Table1[Reserven '[h']])</f>
-        <v>53</v>
-      </c>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-    </row>
-    <row r="13" spans="1:11" s="20" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4">
+        <f>SUBTOTAL(103,Table1[Sprint neu])</f>
+        <v>9</v>
+      </c>
+      <c r="J13" s="4">
+        <f>SUBTOTAL(103,Table1[Sprint bereinigt])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="20" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="B13" s="27"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18">
-        <f>25+8</f>
-        <v>33</v>
-      </c>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="21"/>
-    </row>
-    <row r="14" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="B14" s="30"/>
-      <c r="C14" s="31"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="28"/>
       <c r="D14" s="18"/>
       <c r="E14" s="18"/>
       <c r="F14" s="18">
-        <f>Table1[[#Totals],[Reserven '[h']]]-F13</f>
-        <v>20</v>
+        <f>25+8</f>
+        <v>33</v>
       </c>
       <c r="G14" s="18"/>
       <c r="H14" s="18"/>
       <c r="I14" s="18"/>
       <c r="J14" s="18"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
+      <c r="K14" s="21"/>
+    </row>
+    <row r="15" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="30"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18">
+        <f>Table1[[#Totals],[Reserven '[h']]]-F14</f>
+        <v>30</v>
+      </c>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
@@ -1592,12 +1653,12 @@
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="24"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="22"/>
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
@@ -1605,17 +1666,27 @@
       <c r="A18" s="24"/>
       <c r="B18" s="24"/>
       <c r="C18" s="24"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
       <c r="F18" s="22"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="24"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="5">
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
     <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A17:C17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/doc/Bericht/05_Technischer Bericht/02_Projektmanagement/Risikomanagement.xlsx
+++ b/doc/Bericht/05_Technischer Bericht/02_Projektmanagement/Risikomanagement.xlsx
@@ -225,12 +225,6 @@
     <t>WPF Performance ungenügend</t>
   </si>
   <si>
-    <t>WPF Performance ist für die Anwendung ungenügend, daher muss auf DirectX oder OpenGL ausgewichen werden.</t>
-  </si>
-  <si>
-    <t>Applikation so designen, dass die Performance nicht wichtig ist. Bsp. Geschickte Animationen, bei denen man nicht merkt, wenn sie langsam sind. Oder als Alternative: Auflösung verringern.</t>
-  </si>
-  <si>
     <t>DirectX oder OpenGL einsetzen.</t>
   </si>
   <si>
@@ -238,6 +232,12 @@
   </si>
   <si>
     <t>1.8</t>
+  </si>
+  <si>
+    <t>Die WPF Performance ist für die Anwendung ungenügend, daher muss auf DirectX oder OpenGL ausgewichen werden.</t>
+  </si>
+  <si>
+    <t>Applikation so designen, dass die Performance nicht wichtig ist. Bsp: Geschickte Animationen, bei denen man nicht merkt, wenn sie langsam sind. Oder als Alternative: Auflösung verringern.</t>
   </si>
 </sst>
 </file>
@@ -744,8 +744,8 @@
     <tableColumn id="6" name="Reserven [h]" totalsRowFunction="sum" dataDxfId="14" totalsRowDxfId="4"/>
     <tableColumn id="7" name="Vermeidungs- und Verminderungsmassnahmen" dataDxfId="13" totalsRowDxfId="3"/>
     <tableColumn id="8" name="Aktionen beim Eintreffen" dataDxfId="12" totalsRowDxfId="2"/>
-    <tableColumn id="10" name="Sprint neu" totalsRowFunction="count" dataDxfId="11" totalsRowDxfId="0"/>
-    <tableColumn id="11" name="Sprint bereinigt" totalsRowFunction="count" dataDxfId="10" totalsRowDxfId="1"/>
+    <tableColumn id="10" name="Sprint neu" totalsRowFunction="count" dataDxfId="11" totalsRowDxfId="1"/>
+    <tableColumn id="11" name="Sprint bereinigt" totalsRowFunction="count" dataDxfId="10" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1203,10 +1203,10 @@
         <v>41015</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>41</v>
@@ -1229,8 +1229,8 @@
   <sheetPr codeName="Tabelle2"/>
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1558,7 +1558,7 @@
         <v>67</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D12" s="4">
         <v>10</v>
@@ -1571,10 +1571,10 @@
         <v>10</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I12" s="4">
         <v>7</v>

--- a/doc/Bericht/05_Technischer Bericht/02_Projektmanagement/Risikomanagement.xlsx
+++ b/doc/Bericht/05_Technischer Bericht/02_Projektmanagement/Risikomanagement.xlsx
@@ -159,9 +159,6 @@
 Neue Risiken hinzugefügt (4,6,7), Schätzungen angepasst, Beschreibungen erweitert</t>
   </si>
   <si>
-    <t>Scrum, früher Prototyp, kleine Demoprogramme zu Beginn des Projektes. Kontinuierliche Überprüfung der Projektplanung und eventuelle Anpassung. Verantwortung für aktuellen Projektplan an einem Teammitglied zuweisen.</t>
-  </si>
-  <si>
     <t>Die Auflösung der Video Wall ist für das Lesen der Bachelor Posters ungenügend.</t>
   </si>
   <si>
@@ -238,6 +235,9 @@
   </si>
   <si>
     <t>Applikation so designen, dass die Performance nicht wichtig ist. Bsp: Geschickte Animationen, bei denen man nicht merkt, wenn sie langsam sind. Oder als Alternative: Auflösung verringern.</t>
+  </si>
+  <si>
+    <t>Scrum, früher Prototyp, kleine Demoprogramme zu Beginn des Projektes. Kontinuierliche Überprüfung der Projektplanung und eventuelle Anpassung.</t>
   </si>
 </sst>
 </file>
@@ -1133,10 +1133,10 @@
         <v>40970</v>
       </c>
       <c r="B7" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="12" t="s">
         <v>49</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>50</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>22</v>
@@ -1147,10 +1147,10 @@
         <v>40976</v>
       </c>
       <c r="B8" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="12" t="s">
         <v>51</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>52</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>41</v>
@@ -1161,10 +1161,10 @@
         <v>40984</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>22</v>
@@ -1175,10 +1175,10 @@
         <v>40991</v>
       </c>
       <c r="B10" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="12" t="s">
         <v>60</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>61</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>41</v>
@@ -1189,10 +1189,10 @@
         <v>41001</v>
       </c>
       <c r="B11" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="12" t="s">
         <v>65</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>66</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>22</v>
@@ -1203,10 +1203,10 @@
         <v>41015</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>41</v>
@@ -1229,8 +1229,8 @@
   <sheetPr codeName="Tabelle2"/>
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1327,7 +1327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>2</v>
       </c>
@@ -1341,14 +1341,14 @@
         <v>10</v>
       </c>
       <c r="E5" s="4">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F5" s="4">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>13</v>
@@ -1363,10 +1363,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D6" s="4">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>23</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D8" s="4">
         <v>5</v>
@@ -1448,7 +1448,7 @@
         <v>24</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I8" s="4">
         <v>1</v>
@@ -1522,10 +1522,10 @@
         <v>8</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>57</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>58</v>
       </c>
       <c r="D11" s="4">
         <v>100</v>
@@ -1538,10 +1538,10 @@
         <v>8</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I11" s="4">
         <v>5</v>
@@ -1555,10 +1555,10 @@
         <v>9</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D12" s="4">
         <v>10</v>
@@ -1571,10 +1571,10 @@
         <v>10</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I12" s="4">
         <v>7</v>
@@ -1590,11 +1590,11 @@
       <c r="D13" s="4"/>
       <c r="E13" s="4">
         <f>SUBTOTAL(109,Table1[Schadens-potenzial '[h']])</f>
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="F13" s="4">
         <f>SUBTOTAL(109,Table1[Reserven '[h']])</f>
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
@@ -1609,7 +1609,7 @@
     </row>
     <row r="14" spans="1:11" s="20" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B14" s="27"/>
       <c r="C14" s="28"/>
@@ -1627,7 +1627,7 @@
     </row>
     <row r="15" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B15" s="30"/>
       <c r="C15" s="31"/>
@@ -1635,7 +1635,7 @@
       <c r="E15" s="18"/>
       <c r="F15" s="18">
         <f>Table1[[#Totals],[Reserven '[h']]]-F14</f>
-        <v>30</v>
+        <v>29.5</v>
       </c>
       <c r="G15" s="18"/>
       <c r="H15" s="18"/>

--- a/doc/Bericht/05_Technischer Bericht/02_Projektmanagement/Risikomanagement.xlsx
+++ b/doc/Bericht/05_Technischer Bericht/02_Projektmanagement/Risikomanagement.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="74">
   <si>
     <t>Risikomanagement</t>
   </si>
@@ -238,6 +238,9 @@
   </si>
   <si>
     <t>Scrum, früher Prototyp, kleine Demoprogramme zu Beginn des Projektes. Kontinuierliche Überprüfung der Projektplanung und eventuelle Anpassung.</t>
+  </si>
+  <si>
+    <t>1.9</t>
   </si>
 </sst>
 </file>
@@ -722,7 +725,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A3:D12" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A3:D13" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
   <tableColumns count="4">
     <tableColumn id="1" name="Datum" dataDxfId="26"/>
     <tableColumn id="2" name="Version" dataDxfId="25"/>
@@ -736,16 +739,16 @@
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:J13" totalsRowCount="1" headerRowDxfId="22" dataDxfId="21" totalsRowDxfId="20">
   <tableColumns count="10">
-    <tableColumn id="1" name="Nr." totalsRowLabel="Total" dataDxfId="19" totalsRowDxfId="9"/>
-    <tableColumn id="2" name="Risiko" dataDxfId="18" totalsRowDxfId="8"/>
-    <tableColumn id="3" name="Beschreibung" dataDxfId="17" totalsRowDxfId="7"/>
-    <tableColumn id="4" name="W'keit des Eintretens [%]" dataDxfId="16" totalsRowDxfId="6"/>
-    <tableColumn id="5" name="Schadens-potenzial [h]" totalsRowFunction="sum" dataDxfId="15" totalsRowDxfId="5"/>
-    <tableColumn id="6" name="Reserven [h]" totalsRowFunction="sum" dataDxfId="14" totalsRowDxfId="4"/>
-    <tableColumn id="7" name="Vermeidungs- und Verminderungsmassnahmen" dataDxfId="13" totalsRowDxfId="3"/>
-    <tableColumn id="8" name="Aktionen beim Eintreffen" dataDxfId="12" totalsRowDxfId="2"/>
-    <tableColumn id="10" name="Sprint neu" totalsRowFunction="count" dataDxfId="11" totalsRowDxfId="1"/>
-    <tableColumn id="11" name="Sprint bereinigt" totalsRowFunction="count" dataDxfId="10" totalsRowDxfId="0"/>
+    <tableColumn id="1" name="Nr." totalsRowLabel="Total" dataDxfId="19" totalsRowDxfId="18"/>
+    <tableColumn id="2" name="Risiko" dataDxfId="17" totalsRowDxfId="16"/>
+    <tableColumn id="3" name="Beschreibung" dataDxfId="15" totalsRowDxfId="14"/>
+    <tableColumn id="4" name="W'keit des Eintretens [%]" dataDxfId="13" totalsRowDxfId="12"/>
+    <tableColumn id="5" name="Schadens-potenzial [h]" totalsRowFunction="sum" dataDxfId="11" totalsRowDxfId="10"/>
+    <tableColumn id="6" name="Reserven [h]" totalsRowFunction="sum" dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="7" name="Vermeidungs- und Verminderungsmassnahmen" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="8" name="Aktionen beim Eintreffen" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="10" name="Sprint neu" totalsRowFunction="count" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="11" name="Sprint bereinigt" totalsRowFunction="count" dataDxfId="1" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1038,10 +1041,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1210,6 +1213,20 @@
       </c>
       <c r="D12" s="4" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
+        <v>41029</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1229,8 +1246,8 @@
   <sheetPr codeName="Tabelle2"/>
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/doc/Bericht/05_Technischer Bericht/02_Projektmanagement/Risikomanagement.xlsx
+++ b/doc/Bericht/05_Technischer Bericht/02_Projektmanagement/Risikomanagement.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="79">
   <si>
     <t>Risikomanagement</t>
   </si>
@@ -241,13 +241,28 @@
   </si>
   <si>
     <t>1.9</t>
+  </si>
+  <si>
+    <t>1.10</t>
+  </si>
+  <si>
+    <t>CH</t>
+  </si>
+  <si>
+    <t>Risiko 9: "WPF Performance ungenügend" ist eingetreten und bereinigt. Trotz der Erkenntnis, dass DirectX besser funktionieren würde, bleibt man bei WPF, da der Aufwand für einen Wechsel zu gross für die Arbeit wäre. Das Schadenspotential wurde auf 10 Stunden reduziert.</t>
+  </si>
+  <si>
+    <t>1.11</t>
+  </si>
+  <si>
+    <t>Das Risiko 4 "Kinect: Menschliche Drehung" wurde elimiert, da der Teaser nun doch umgsetzt wird, jedoch auf eine Weise, welche die menschliche Drehung nicht mehr benötigt.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -310,6 +325,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -435,7 +467,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -520,6 +552,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="20% - Accent4" xfId="3" builtinId="42" customBuiltin="1"/>
@@ -725,7 +762,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A3:D13" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A3:D15" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
   <tableColumns count="4">
     <tableColumn id="1" name="Datum" dataDxfId="26"/>
     <tableColumn id="2" name="Version" dataDxfId="25"/>
@@ -739,16 +776,16 @@
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:J13" totalsRowCount="1" headerRowDxfId="22" dataDxfId="21" totalsRowDxfId="20">
   <tableColumns count="10">
-    <tableColumn id="1" name="Nr." totalsRowLabel="Total" dataDxfId="19" totalsRowDxfId="18"/>
-    <tableColumn id="2" name="Risiko" dataDxfId="17" totalsRowDxfId="16"/>
-    <tableColumn id="3" name="Beschreibung" dataDxfId="15" totalsRowDxfId="14"/>
-    <tableColumn id="4" name="W'keit des Eintretens [%]" dataDxfId="13" totalsRowDxfId="12"/>
-    <tableColumn id="5" name="Schadens-potenzial [h]" totalsRowFunction="sum" dataDxfId="11" totalsRowDxfId="10"/>
-    <tableColumn id="6" name="Reserven [h]" totalsRowFunction="sum" dataDxfId="9" totalsRowDxfId="8"/>
-    <tableColumn id="7" name="Vermeidungs- und Verminderungsmassnahmen" dataDxfId="7" totalsRowDxfId="6"/>
-    <tableColumn id="8" name="Aktionen beim Eintreffen" dataDxfId="5" totalsRowDxfId="4"/>
-    <tableColumn id="10" name="Sprint neu" totalsRowFunction="count" dataDxfId="3" totalsRowDxfId="2"/>
-    <tableColumn id="11" name="Sprint bereinigt" totalsRowFunction="count" dataDxfId="1" totalsRowDxfId="0"/>
+    <tableColumn id="1" name="Nr." totalsRowLabel="Total" dataDxfId="19" totalsRowDxfId="9"/>
+    <tableColumn id="2" name="Risiko" dataDxfId="18" totalsRowDxfId="8"/>
+    <tableColumn id="3" name="Beschreibung" dataDxfId="17" totalsRowDxfId="7"/>
+    <tableColumn id="4" name="W'keit des Eintretens [%]" dataDxfId="16" totalsRowDxfId="6"/>
+    <tableColumn id="5" name="Schadens-potenzial [h]" totalsRowFunction="sum" dataDxfId="15" totalsRowDxfId="5"/>
+    <tableColumn id="6" name="Reserven [h]" totalsRowFunction="sum" dataDxfId="14" totalsRowDxfId="4"/>
+    <tableColumn id="7" name="Vermeidungs- und Verminderungsmassnahmen" dataDxfId="13" totalsRowDxfId="3"/>
+    <tableColumn id="8" name="Aktionen beim Eintreffen" dataDxfId="12" totalsRowDxfId="2"/>
+    <tableColumn id="10" name="Sprint neu" totalsRowFunction="count" dataDxfId="11" totalsRowDxfId="1"/>
+    <tableColumn id="11" name="Sprint bereinigt" totalsRowFunction="count" dataDxfId="10" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1041,10 +1078,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1227,6 +1264,34 @@
       </c>
       <c r="D13" s="4" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="11">
+        <v>41036</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="11">
+        <v>41036</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1246,8 +1311,8 @@
   <sheetPr codeName="Tabelle2"/>
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1408,38 +1473,39 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+    <row r="7" spans="1:11" s="34" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="32">
         <v>4</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="32">
         <v>0</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="32">
         <v>30</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="32">
         <f t="shared" ref="F7" si="1">(D7/100)*E7</f>
         <v>0</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="32">
         <v>2</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="32">
         <v>6</v>
       </c>
+      <c r="K7" s="33"/>
     </row>
     <row r="8" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
@@ -1578,10 +1644,10 @@
         <v>70</v>
       </c>
       <c r="D12" s="4">
+        <v>100</v>
+      </c>
+      <c r="E12" s="4">
         <v>10</v>
-      </c>
-      <c r="E12" s="4">
-        <v>100</v>
       </c>
       <c r="F12" s="4">
         <f t="shared" si="2"/>
@@ -1596,7 +1662,9 @@
       <c r="I12" s="4">
         <v>7</v>
       </c>
-      <c r="J12" s="4"/>
+      <c r="J12" s="4">
+        <v>10</v>
+      </c>
     </row>
     <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
@@ -1607,7 +1675,7 @@
       <c r="D13" s="4"/>
       <c r="E13" s="4">
         <f>SUBTOTAL(109,Table1[Schadens-potenzial '[h']])</f>
-        <v>438</v>
+        <v>348</v>
       </c>
       <c r="F13" s="4">
         <f>SUBTOTAL(109,Table1[Reserven '[h']])</f>
@@ -1621,7 +1689,7 @@
       </c>
       <c r="J13" s="4">
         <f>SUBTOTAL(103,Table1[Sprint bereinigt])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:11" s="20" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">

--- a/doc/Bericht/05_Technischer Bericht/02_Projektmanagement/Risikomanagement.xlsx
+++ b/doc/Bericht/05_Technischer Bericht/02_Projektmanagement/Risikomanagement.xlsx
@@ -11,14 +11,14 @@
     <sheet name="Risiken" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Risiken!$A$3:$H$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Risiken!$A$3:$H$13</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="85">
   <si>
     <t>Risikomanagement</t>
   </si>
@@ -256,6 +256,24 @@
   </si>
   <si>
     <t>Das Risiko 4 "Kinect: Menschliche Drehung" wurde elimiert, da der Teaser nun doch umgsetzt wird, jedoch auf eine Weise, welche die menschliche Drehung nicht mehr benötigt.</t>
+  </si>
+  <si>
+    <t>Applikation läuft nicht mit vielen Elementen</t>
+  </si>
+  <si>
+    <t>Wenn viele Poster geladen werden, so läuft die Applikation nicht oder nicht mehr flüssig (z.B. wegen zu wenig Memory)</t>
+  </si>
+  <si>
+    <t>Keine, da erst relevant bei vielen Postern.</t>
+  </si>
+  <si>
+    <t>Applikation so optimieren, dass nicht mehr alle Elemente ins Memory geladen werden müssen.</t>
+  </si>
+  <si>
+    <t>Risiko 10 identifiziert.</t>
+  </si>
+  <si>
+    <t>1.12</t>
   </si>
 </sst>
 </file>
@@ -525,6 +543,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -552,11 +575,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="20% - Accent4" xfId="3" builtinId="42" customBuiltin="1"/>
@@ -762,7 +780,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A3:D15" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A3:D16" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
   <tableColumns count="4">
     <tableColumn id="1" name="Datum" dataDxfId="26"/>
     <tableColumn id="2" name="Version" dataDxfId="25"/>
@@ -774,7 +792,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:J13" totalsRowCount="1" headerRowDxfId="22" dataDxfId="21" totalsRowDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:J14" totalsRowCount="1" headerRowDxfId="22" dataDxfId="21" totalsRowDxfId="20">
   <tableColumns count="10">
     <tableColumn id="1" name="Nr." totalsRowLabel="Total" dataDxfId="19" totalsRowDxfId="9"/>
     <tableColumn id="2" name="Risiko" dataDxfId="18" totalsRowDxfId="8"/>
@@ -1078,10 +1096,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1093,12 +1111,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
       <c r="E1" s="9"/>
       <c r="F1" s="9"/>
       <c r="G1" s="9"/>
@@ -1292,6 +1310,20 @@
       </c>
       <c r="D15" s="4" t="s">
         <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="11">
+        <v>41038</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1309,10 +1341,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Tabelle2"/>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1331,18 +1363,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
     </row>
     <row r="3" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -1473,39 +1505,39 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="34" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="32">
+    <row r="7" spans="1:11" s="25" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="23">
         <v>4</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="32">
+      <c r="D7" s="23">
         <v>0</v>
       </c>
-      <c r="E7" s="32">
+      <c r="E7" s="23">
         <v>30</v>
       </c>
-      <c r="F7" s="32">
+      <c r="F7" s="23">
         <f t="shared" ref="F7" si="1">(D7/100)*E7</f>
         <v>0</v>
       </c>
-      <c r="G7" s="32" t="s">
+      <c r="G7" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="32" t="s">
+      <c r="H7" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="I7" s="32">
+      <c r="I7" s="23">
         <v>2</v>
       </c>
-      <c r="J7" s="32">
+      <c r="J7" s="23">
         <v>6</v>
       </c>
-      <c r="K7" s="33"/>
+      <c r="K7" s="24"/>
     </row>
     <row r="8" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
@@ -1586,7 +1618,7 @@
         <v>60</v>
       </c>
       <c r="F10" s="4">
-        <f t="shared" ref="F10:F12" si="2">(D10/100)*E10</f>
+        <f t="shared" ref="F10:F13" si="2">(D10/100)*E10</f>
         <v>6</v>
       </c>
       <c r="G10" s="4" t="s">
@@ -1666,76 +1698,97 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
+    <row r="13" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>10</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" s="4">
+        <v>60</v>
+      </c>
+      <c r="E13" s="4">
+        <v>40</v>
+      </c>
+      <c r="F13" s="4">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="I13" s="4">
+        <v>11</v>
+      </c>
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4">
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4">
         <f>SUBTOTAL(109,Table1[Schadens-potenzial '[h']])</f>
-        <v>348</v>
-      </c>
-      <c r="F13" s="4">
+        <v>388</v>
+      </c>
+      <c r="F14" s="4">
         <f>SUBTOTAL(109,Table1[Reserven '[h']])</f>
-        <v>62.5</v>
-      </c>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4">
+        <v>86.5</v>
+      </c>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4">
         <f>SUBTOTAL(103,Table1[Sprint neu])</f>
-        <v>9</v>
-      </c>
-      <c r="J13" s="4">
+        <v>10</v>
+      </c>
+      <c r="J14" s="4">
         <f>SUBTOTAL(103,Table1[Sprint bereinigt])</f>
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="20" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="26" t="s">
+    <row r="15" spans="1:11" s="20" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="29" t="s">
         <v>61</v>
-      </c>
-      <c r="B14" s="27"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18">
-        <f>25+8</f>
-        <v>33</v>
-      </c>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="21"/>
-    </row>
-    <row r="15" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="29" t="s">
-        <v>62</v>
       </c>
       <c r="B15" s="30"/>
       <c r="C15" s="31"/>
       <c r="D15" s="18"/>
       <c r="E15" s="18"/>
       <c r="F15" s="18">
-        <f>Table1[[#Totals],[Reserven '[h']]]-F14</f>
-        <v>29.5</v>
+        <f>25+8</f>
+        <v>33</v>
       </c>
       <c r="G15" s="18"/>
       <c r="H15" s="18"/>
       <c r="I15" s="18"/>
       <c r="J15" s="18"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
+      <c r="K15" s="21"/>
+    </row>
+    <row r="16" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="33"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18">
+        <f>Table1[[#Totals],[Reserven '[h']]]-F15</f>
+        <v>53.5</v>
+      </c>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
@@ -1748,30 +1801,40 @@
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="24"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="22"/>
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="24"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
+      <c r="A19" s="27"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
       <c r="F19" s="22"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="27"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="5">
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
     <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A18:C18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/doc/Bericht/05_Technischer Bericht/02_Projektmanagement/Risikomanagement.xlsx
+++ b/doc/Bericht/05_Technischer Bericht/02_Projektmanagement/Risikomanagement.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="30" windowWidth="12390" windowHeight="11955" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="30" windowWidth="12390" windowHeight="11955"/>
   </bookViews>
   <sheets>
     <sheet name="Änderungsgeschichte" sheetId="3" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="86">
   <si>
     <t>Risikomanagement</t>
   </si>
@@ -274,6 +274,9 @@
   </si>
   <si>
     <t>1.12</t>
+  </si>
+  <si>
+    <t>1.13</t>
   </si>
 </sst>
 </file>
@@ -780,7 +783,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A3:D16" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A3:D17" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
   <tableColumns count="4">
     <tableColumn id="1" name="Datum" dataDxfId="26"/>
     <tableColumn id="2" name="Version" dataDxfId="25"/>
@@ -794,16 +797,16 @@
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:J14" totalsRowCount="1" headerRowDxfId="22" dataDxfId="21" totalsRowDxfId="20">
   <tableColumns count="10">
-    <tableColumn id="1" name="Nr." totalsRowLabel="Total" dataDxfId="19" totalsRowDxfId="9"/>
-    <tableColumn id="2" name="Risiko" dataDxfId="18" totalsRowDxfId="8"/>
-    <tableColumn id="3" name="Beschreibung" dataDxfId="17" totalsRowDxfId="7"/>
-    <tableColumn id="4" name="W'keit des Eintretens [%]" dataDxfId="16" totalsRowDxfId="6"/>
-    <tableColumn id="5" name="Schadens-potenzial [h]" totalsRowFunction="sum" dataDxfId="15" totalsRowDxfId="5"/>
-    <tableColumn id="6" name="Reserven [h]" totalsRowFunction="sum" dataDxfId="14" totalsRowDxfId="4"/>
-    <tableColumn id="7" name="Vermeidungs- und Verminderungsmassnahmen" dataDxfId="13" totalsRowDxfId="3"/>
-    <tableColumn id="8" name="Aktionen beim Eintreffen" dataDxfId="12" totalsRowDxfId="2"/>
-    <tableColumn id="10" name="Sprint neu" totalsRowFunction="count" dataDxfId="11" totalsRowDxfId="1"/>
-    <tableColumn id="11" name="Sprint bereinigt" totalsRowFunction="count" dataDxfId="10" totalsRowDxfId="0"/>
+    <tableColumn id="1" name="Nr." totalsRowLabel="Total" dataDxfId="19" totalsRowDxfId="18"/>
+    <tableColumn id="2" name="Risiko" dataDxfId="17" totalsRowDxfId="16"/>
+    <tableColumn id="3" name="Beschreibung" dataDxfId="15" totalsRowDxfId="14"/>
+    <tableColumn id="4" name="W'keit des Eintretens [%]" dataDxfId="13" totalsRowDxfId="12"/>
+    <tableColumn id="5" name="Schadens-potenzial [h]" totalsRowFunction="sum" dataDxfId="11" totalsRowDxfId="10"/>
+    <tableColumn id="6" name="Reserven [h]" totalsRowFunction="sum" dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="7" name="Vermeidungs- und Verminderungsmassnahmen" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="8" name="Aktionen beim Eintreffen" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="10" name="Sprint neu" totalsRowFunction="count" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="11" name="Sprint bereinigt" totalsRowFunction="count" dataDxfId="1" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1096,10 +1099,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1324,6 +1327,20 @@
       </c>
       <c r="D16" s="4" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="11">
+        <v>41044</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1343,8 +1360,8 @@
   <sheetPr codeName="Tabelle2"/>
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/doc/Bericht/05_Technischer Bericht/02_Projektmanagement/Risikomanagement.xlsx
+++ b/doc/Bericht/05_Technischer Bericht/02_Projektmanagement/Risikomanagement.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="30" windowWidth="12390" windowHeight="11955"/>
+    <workbookView xWindow="-15" yWindow="30" windowWidth="12390" windowHeight="11955" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Änderungsgeschichte" sheetId="3" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="88">
   <si>
     <t>Risikomanagement</t>
   </si>
@@ -277,6 +277,13 @@
   </si>
   <si>
     <t>1.13</t>
+  </si>
+  <si>
+    <t>1.14</t>
+  </si>
+  <si>
+    <t>Risiko  6: "Leichte Usability Test Korrekturen" ist eingetreten (100%). Deshalb müssen die Korrekturen umgesetzt werden (Schaden: 6h).
+Das Schadenspotential wurde auf 6 h reduziert.</t>
   </si>
 </sst>
 </file>
@@ -783,7 +790,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A3:D17" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A3:D18" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
   <tableColumns count="4">
     <tableColumn id="1" name="Datum" dataDxfId="26"/>
     <tableColumn id="2" name="Version" dataDxfId="25"/>
@@ -797,16 +804,16 @@
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:J14" totalsRowCount="1" headerRowDxfId="22" dataDxfId="21" totalsRowDxfId="20">
   <tableColumns count="10">
-    <tableColumn id="1" name="Nr." totalsRowLabel="Total" dataDxfId="19" totalsRowDxfId="18"/>
-    <tableColumn id="2" name="Risiko" dataDxfId="17" totalsRowDxfId="16"/>
-    <tableColumn id="3" name="Beschreibung" dataDxfId="15" totalsRowDxfId="14"/>
-    <tableColumn id="4" name="W'keit des Eintretens [%]" dataDxfId="13" totalsRowDxfId="12"/>
-    <tableColumn id="5" name="Schadens-potenzial [h]" totalsRowFunction="sum" dataDxfId="11" totalsRowDxfId="10"/>
-    <tableColumn id="6" name="Reserven [h]" totalsRowFunction="sum" dataDxfId="9" totalsRowDxfId="8"/>
-    <tableColumn id="7" name="Vermeidungs- und Verminderungsmassnahmen" dataDxfId="7" totalsRowDxfId="6"/>
-    <tableColumn id="8" name="Aktionen beim Eintreffen" dataDxfId="5" totalsRowDxfId="4"/>
-    <tableColumn id="10" name="Sprint neu" totalsRowFunction="count" dataDxfId="3" totalsRowDxfId="2"/>
-    <tableColumn id="11" name="Sprint bereinigt" totalsRowFunction="count" dataDxfId="1" totalsRowDxfId="0"/>
+    <tableColumn id="1" name="Nr." totalsRowLabel="Total" dataDxfId="19" totalsRowDxfId="9"/>
+    <tableColumn id="2" name="Risiko" dataDxfId="18" totalsRowDxfId="8"/>
+    <tableColumn id="3" name="Beschreibung" dataDxfId="17" totalsRowDxfId="7"/>
+    <tableColumn id="4" name="W'keit des Eintretens [%]" dataDxfId="16" totalsRowDxfId="6"/>
+    <tableColumn id="5" name="Schadens-potenzial [h]" totalsRowFunction="sum" dataDxfId="15" totalsRowDxfId="5"/>
+    <tableColumn id="6" name="Reserven [h]" totalsRowFunction="sum" dataDxfId="14" totalsRowDxfId="4"/>
+    <tableColumn id="7" name="Vermeidungs- und Verminderungsmassnahmen" dataDxfId="13" totalsRowDxfId="3"/>
+    <tableColumn id="8" name="Aktionen beim Eintreffen" dataDxfId="12" totalsRowDxfId="2"/>
+    <tableColumn id="10" name="Sprint neu" totalsRowFunction="count" dataDxfId="11" totalsRowDxfId="1"/>
+    <tableColumn id="11" name="Sprint bereinigt" totalsRowFunction="count" dataDxfId="10" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1099,10 +1106,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1341,6 +1348,20 @@
       </c>
       <c r="D17" s="4" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="11">
+        <v>41047</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1360,8 +1381,8 @@
   <sheetPr codeName="Tabelle2"/>
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1598,10 +1619,10 @@
         <v>34</v>
       </c>
       <c r="D9" s="4">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="E9" s="4">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="F9" s="4">
         <f t="shared" si="0"/>
@@ -1755,7 +1776,7 @@
       <c r="D14" s="4"/>
       <c r="E14" s="4">
         <f>SUBTOTAL(109,Table1[Schadens-potenzial '[h']])</f>
-        <v>388</v>
+        <v>374</v>
       </c>
       <c r="F14" s="4">
         <f>SUBTOTAL(109,Table1[Reserven '[h']])</f>

--- a/doc/Bericht/05_Technischer Bericht/02_Projektmanagement/Risikomanagement.xlsx
+++ b/doc/Bericht/05_Technischer Bericht/02_Projektmanagement/Risikomanagement.xlsx
@@ -1381,8 +1381,8 @@
   <sheetPr codeName="Tabelle2"/>
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1637,7 +1637,9 @@
       <c r="I9" s="4">
         <v>2</v>
       </c>
-      <c r="J9" s="4"/>
+      <c r="J9" s="4">
+        <v>12</v>
+      </c>
     </row>
     <row r="10" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
@@ -1790,7 +1792,7 @@
       </c>
       <c r="J14" s="4">
         <f>SUBTOTAL(103,Table1[Sprint bereinigt])</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:11" s="20" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">

--- a/doc/Bericht/05_Technischer Bericht/02_Projektmanagement/Risikomanagement.xlsx
+++ b/doc/Bericht/05_Technischer Bericht/02_Projektmanagement/Risikomanagement.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="89">
   <si>
     <t>Risikomanagement</t>
   </si>
@@ -284,6 +284,9 @@
   <si>
     <t>Risiko  6: "Leichte Usability Test Korrekturen" ist eingetreten (100%). Deshalb müssen die Korrekturen umgesetzt werden (Schaden: 6h).
 Das Schadenspotential wurde auf 6 h reduziert.</t>
+  </si>
+  <si>
+    <t>1.15</t>
   </si>
 </sst>
 </file>
@@ -587,10 +590,10 @@
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="20% - Accent4" xfId="3" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="2" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent4" xfId="3" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="Akzent4" xfId="2" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Überschrift" xfId="1" builtinId="15" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="36">
     <dxf>
@@ -790,7 +793,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A3:D18" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A3:D19" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
   <tableColumns count="4">
     <tableColumn id="1" name="Datum" dataDxfId="26"/>
     <tableColumn id="2" name="Version" dataDxfId="25"/>
@@ -804,25 +807,25 @@
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:J14" totalsRowCount="1" headerRowDxfId="22" dataDxfId="21" totalsRowDxfId="20">
   <tableColumns count="10">
-    <tableColumn id="1" name="Nr." totalsRowLabel="Total" dataDxfId="19" totalsRowDxfId="9"/>
-    <tableColumn id="2" name="Risiko" dataDxfId="18" totalsRowDxfId="8"/>
-    <tableColumn id="3" name="Beschreibung" dataDxfId="17" totalsRowDxfId="7"/>
-    <tableColumn id="4" name="W'keit des Eintretens [%]" dataDxfId="16" totalsRowDxfId="6"/>
-    <tableColumn id="5" name="Schadens-potenzial [h]" totalsRowFunction="sum" dataDxfId="15" totalsRowDxfId="5"/>
-    <tableColumn id="6" name="Reserven [h]" totalsRowFunction="sum" dataDxfId="14" totalsRowDxfId="4"/>
-    <tableColumn id="7" name="Vermeidungs- und Verminderungsmassnahmen" dataDxfId="13" totalsRowDxfId="3"/>
-    <tableColumn id="8" name="Aktionen beim Eintreffen" dataDxfId="12" totalsRowDxfId="2"/>
-    <tableColumn id="10" name="Sprint neu" totalsRowFunction="count" dataDxfId="11" totalsRowDxfId="1"/>
-    <tableColumn id="11" name="Sprint bereinigt" totalsRowFunction="count" dataDxfId="10" totalsRowDxfId="0"/>
+    <tableColumn id="1" name="Nr." totalsRowLabel="Total" dataDxfId="19" totalsRowDxfId="18"/>
+    <tableColumn id="2" name="Risiko" dataDxfId="17" totalsRowDxfId="16"/>
+    <tableColumn id="3" name="Beschreibung" dataDxfId="15" totalsRowDxfId="14"/>
+    <tableColumn id="4" name="W'keit des Eintretens [%]" dataDxfId="13" totalsRowDxfId="12"/>
+    <tableColumn id="5" name="Schadens-potenzial [h]" totalsRowFunction="sum" dataDxfId="11" totalsRowDxfId="10"/>
+    <tableColumn id="6" name="Reserven [h]" totalsRowFunction="sum" dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="7" name="Vermeidungs- und Verminderungsmassnahmen" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="8" name="Aktionen beim Eintreffen" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="10" name="Sprint neu" totalsRowFunction="count" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="11" name="Sprint bereinigt" totalsRowFunction="count" dataDxfId="1" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Larissa">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -860,7 +863,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Larissa">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -932,7 +935,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Larissa">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1106,13 +1109,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.5703125" customWidth="1"/>
     <col min="2" max="2" width="10.140625" style="17" bestFit="1" customWidth="1"/>
@@ -1361,6 +1364,20 @@
         <v>87</v>
       </c>
       <c r="D18" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="11">
+        <v>41057</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>75</v>
       </c>
     </row>
@@ -1381,11 +1398,11 @@
   <sheetPr codeName="Tabelle2"/>
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.42578125" customWidth="1"/>
     <col min="2" max="2" width="14.7109375" customWidth="1"/>
@@ -1479,7 +1496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>2</v>
       </c>

--- a/doc/Bericht/05_Technischer Bericht/02_Projektmanagement/Risikomanagement.xlsx
+++ b/doc/Bericht/05_Technischer Bericht/02_Projektmanagement/Risikomanagement.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="30" windowWidth="12390" windowHeight="11955" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="30" windowWidth="12390" windowHeight="11955"/>
   </bookViews>
   <sheets>
     <sheet name="Änderungsgeschichte" sheetId="3" r:id="rId1"/>
@@ -89,12 +89,6 @@
     <t>DT</t>
   </si>
   <si>
-    <t>Auflösung der Video Wall ungenügend</t>
-  </si>
-  <si>
-    <t>Suchen einer Lösung für die Erstellung der Video Wall, bei der jeder einzelne Monitor Full HD ist.</t>
-  </si>
-  <si>
     <t>Frühe Anfrage, frühe Abklärungen durch Markus Stolze / Schulleitung.</t>
   </si>
   <si>
@@ -150,18 +144,12 @@
   </si>
   <si>
     <t>1.2</t>
-  </si>
-  <si>
-    <t>Die Hardware für die Video Wall kann nicht  rechtzeitig geliefert werden.</t>
   </si>
   <si>
     <t>Risiko 1 ist eingetreten: HW wird nicht rechtzeitig geliefert. Deshalb muss alternatives Testsetup evaluiert werden (Schaden: 25h).
 Neue Risiken hinzugefügt (4,6,7), Schätzungen angepasst, Beschreibungen erweitert</t>
   </si>
   <si>
-    <t>Die Auflösung der Video Wall ist für das Lesen der Bachelor Posters ungenügend.</t>
-  </si>
-  <si>
     <t>Darstellung der Poster in einer Grösse, die gut lesbar ist. Usability Tests müssen wiederholt werden. Alternative (2h Aufwand): Zu kleine Texte / Dokumente dürfen nicht hochgeladen / angezeigt werden (Constraint einführen).</t>
   </si>
   <si>
@@ -178,9 +166,6 @@
   </si>
   <si>
     <t>1.5</t>
-  </si>
-  <si>
-    <t>Kinect erkennt Menschen nicht, die sich parallel zur Wand ausgerichtet vor der Video Wall bewegen.</t>
   </si>
   <si>
     <t>Kinect: Erkennung von der Seite</t>
@@ -287,6 +272,21 @@
   </si>
   <si>
     <t>1.15</t>
+  </si>
+  <si>
+    <t>Die Hardware für die Videowall kann nicht  rechtzeitig geliefert werden.</t>
+  </si>
+  <si>
+    <t>Kinect erkennt Menschen nicht, die sich parallel zur Wand ausgerichtet vor der Videowall bewegen.</t>
+  </si>
+  <si>
+    <t>Auflösung der Videowall ungenügend</t>
+  </si>
+  <si>
+    <t>Die Auflösung der Videowall ist für das Lesen der Bachelor Posters ungenügend.</t>
+  </si>
+  <si>
+    <t>Suchen einer Lösung für die Erstellung der Videowall, bei der jeder einzelne Monitor Full HD ist.</t>
   </si>
 </sst>
 </file>
@@ -590,10 +590,10 @@
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="20 % - Akzent4" xfId="3" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="Akzent4" xfId="2" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Überschrift" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="3" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="2" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="36">
     <dxf>
@@ -823,9 +823,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -863,7 +863,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -935,7 +935,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1111,11 +1111,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.5703125" customWidth="1"/>
     <col min="2" max="2" width="10.140625" style="17" bestFit="1" customWidth="1"/>
@@ -1162,7 +1162,7 @@
         <v>40962</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>10</v>
@@ -1179,10 +1179,10 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -1190,13 +1190,13 @@
         <v>40970</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -1204,10 +1204,10 @@
         <v>40970</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>22</v>
@@ -1218,13 +1218,13 @@
         <v>40976</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -1232,10 +1232,10 @@
         <v>40984</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>22</v>
@@ -1246,13 +1246,13 @@
         <v>40991</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -1260,10 +1260,10 @@
         <v>41001</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>22</v>
@@ -1274,13 +1274,13 @@
         <v>41015</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -1288,10 +1288,10 @@
         <v>41029</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>22</v>
@@ -1302,13 +1302,13 @@
         <v>41036</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -1316,13 +1316,13 @@
         <v>41036</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1330,13 +1330,13 @@
         <v>41038</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1344,10 +1344,10 @@
         <v>41044</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>22</v>
@@ -1358,13 +1358,13 @@
         <v>41047</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1372,13 +1372,13 @@
         <v>41057</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1398,11 +1398,11 @@
   <sheetPr codeName="Tabelle2"/>
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:C16"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.42578125" customWidth="1"/>
     <col min="2" max="2" width="14.7109375" customWidth="1"/>
@@ -1471,7 +1471,7 @@
         <v>21</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="D4" s="4">
         <v>100</v>
@@ -1484,10 +1484,10 @@
         <v>25</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I4" s="4">
         <v>1</v>
@@ -1496,7 +1496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>2</v>
       </c>
@@ -1517,7 +1517,7 @@
         <v>4.5</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>13</v>
@@ -1532,10 +1532,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="D6" s="4">
         <v>0</v>
@@ -1548,10 +1548,10 @@
         <v>0</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I6" s="4">
         <v>1</v>
@@ -1565,10 +1565,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D7" s="23">
         <v>0</v>
@@ -1581,10 +1581,10 @@
         <v>0</v>
       </c>
       <c r="G7" s="23" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H7" s="23" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I7" s="23">
         <v>2</v>
@@ -1599,10 +1599,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="D8" s="4">
         <v>5</v>
@@ -1615,10 +1615,10 @@
         <v>3</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>24</v>
+        <v>88</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I8" s="4">
         <v>1</v>
@@ -1630,10 +1630,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D9" s="4">
         <v>100</v>
@@ -1646,10 +1646,10 @@
         <v>6</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I9" s="4">
         <v>2</v>
@@ -1663,10 +1663,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D10" s="4">
         <v>10</v>
@@ -1679,10 +1679,10 @@
         <v>6</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I10" s="4">
         <v>2</v>
@@ -1694,10 +1694,10 @@
         <v>8</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D11" s="4">
         <v>100</v>
@@ -1710,10 +1710,10 @@
         <v>8</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="I11" s="4">
         <v>5</v>
@@ -1727,10 +1727,10 @@
         <v>9</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D12" s="4">
         <v>100</v>
@@ -1743,10 +1743,10 @@
         <v>10</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="I12" s="4">
         <v>7</v>
@@ -1760,10 +1760,10 @@
         <v>10</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D13" s="4">
         <v>60</v>
@@ -1776,10 +1776,10 @@
         <v>24</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="I13" s="4">
         <v>11</v>
@@ -1814,7 +1814,7 @@
     </row>
     <row r="15" spans="1:11" s="20" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="29" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B15" s="30"/>
       <c r="C15" s="31"/>
@@ -1832,7 +1832,7 @@
     </row>
     <row r="16" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A16" s="32" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B16" s="33"/>
       <c r="C16" s="34"/>

--- a/doc/Bericht/05_Technischer Bericht/02_Projektmanagement/Risikomanagement.xlsx
+++ b/doc/Bericht/05_Technischer Bericht/02_Projektmanagement/Risikomanagement.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="91">
   <si>
     <t>Risikomanagement</t>
   </si>
@@ -144,10 +144,6 @@
   </si>
   <si>
     <t>1.2</t>
-  </si>
-  <si>
-    <t>Risiko 1 ist eingetreten: HW wird nicht rechtzeitig geliefert. Deshalb muss alternatives Testsetup evaluiert werden (Schaden: 25h).
-Neue Risiken hinzugefügt (4,6,7), Schätzungen angepasst, Beschreibungen erweitert</t>
   </si>
   <si>
     <t>Darstellung der Poster in einer Grösse, die gut lesbar ist. Usability Tests müssen wiederholt werden. Alternative (2h Aufwand): Zu kleine Texte / Dokumente dürfen nicht hochgeladen / angezeigt werden (Constraint einführen).</t>
@@ -287,6 +283,19 @@
   </si>
   <si>
     <t>Suchen einer Lösung für die Erstellung der Videowall, bei der jeder einzelne Monitor Full HD ist.</t>
+  </si>
+  <si>
+    <t>1.16</t>
+  </si>
+  <si>
+    <t>Das Risiko 5: "Auflösung der Videowall ungenügend" ist für ca. 20% der Poster eingetroffen. Massnahmen dazu werden aber nicht mehr innerhalb des Zeitraums der BA umgesetzt. Dieser Punkt wurde daher in der Weiterentwicklung dokumentiert und das Schadenspotenzial auf 0 gesetzt.
+Die Risiken :2 "Fehlein-schätzung des Zeitaufwands" und 7: "Schwere Usability Test Korrekturen (zusätzlich zu Risiko 6)" sind bereinigt. 
+Riskio 10: "Applikation läuft nicht mit vielen Elementen" ist bereinigt, da zu wenig Poster zur Verfügung standen.
+Alle Risiken sind bereinigt.</t>
+  </si>
+  <si>
+    <t>Risiko 1 ist eingetreten: "HW wird nicht rechtzeitig geliefert". Deshalb muss alternatives Testsetup evaluiert werden (Schaden: 25h).
+Neue Risiken hinzugefügt (4,6,7), Schätzungen angepasst, Beschreibungen erweitert</t>
   </si>
 </sst>
 </file>
@@ -793,7 +802,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A3:D19" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A3:D20" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
   <tableColumns count="4">
     <tableColumn id="1" name="Datum" dataDxfId="26"/>
     <tableColumn id="2" name="Version" dataDxfId="25"/>
@@ -807,16 +816,16 @@
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:J14" totalsRowCount="1" headerRowDxfId="22" dataDxfId="21" totalsRowDxfId="20">
   <tableColumns count="10">
-    <tableColumn id="1" name="Nr." totalsRowLabel="Total" dataDxfId="19" totalsRowDxfId="18"/>
-    <tableColumn id="2" name="Risiko" dataDxfId="17" totalsRowDxfId="16"/>
-    <tableColumn id="3" name="Beschreibung" dataDxfId="15" totalsRowDxfId="14"/>
-    <tableColumn id="4" name="W'keit des Eintretens [%]" dataDxfId="13" totalsRowDxfId="12"/>
-    <tableColumn id="5" name="Schadens-potenzial [h]" totalsRowFunction="sum" dataDxfId="11" totalsRowDxfId="10"/>
-    <tableColumn id="6" name="Reserven [h]" totalsRowFunction="sum" dataDxfId="9" totalsRowDxfId="8"/>
-    <tableColumn id="7" name="Vermeidungs- und Verminderungsmassnahmen" dataDxfId="7" totalsRowDxfId="6"/>
-    <tableColumn id="8" name="Aktionen beim Eintreffen" dataDxfId="5" totalsRowDxfId="4"/>
-    <tableColumn id="10" name="Sprint neu" totalsRowFunction="count" dataDxfId="3" totalsRowDxfId="2"/>
-    <tableColumn id="11" name="Sprint bereinigt" totalsRowFunction="count" dataDxfId="1" totalsRowDxfId="0"/>
+    <tableColumn id="1" name="Nr." totalsRowLabel="Total" dataDxfId="19" totalsRowDxfId="9"/>
+    <tableColumn id="2" name="Risiko" dataDxfId="18" totalsRowDxfId="8"/>
+    <tableColumn id="3" name="Beschreibung" dataDxfId="17" totalsRowDxfId="7"/>
+    <tableColumn id="4" name="W'keit des Eintretens [%]" dataDxfId="16" totalsRowDxfId="6"/>
+    <tableColumn id="5" name="Schadens-potenzial [h]" totalsRowFunction="sum" dataDxfId="15" totalsRowDxfId="5"/>
+    <tableColumn id="6" name="Reserven [h]" totalsRowFunction="sum" dataDxfId="14" totalsRowDxfId="4"/>
+    <tableColumn id="7" name="Vermeidungs- und Verminderungsmassnahmen" dataDxfId="13" totalsRowDxfId="3"/>
+    <tableColumn id="8" name="Aktionen beim Eintreffen" dataDxfId="12" totalsRowDxfId="2"/>
+    <tableColumn id="10" name="Sprint neu" totalsRowFunction="count" dataDxfId="11" totalsRowDxfId="1"/>
+    <tableColumn id="11" name="Sprint bereinigt" totalsRowFunction="count" dataDxfId="10" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1109,10 +1118,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1179,7 +1188,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>39</v>
@@ -1204,10 +1213,10 @@
         <v>40970</v>
       </c>
       <c r="B7" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="12" t="s">
         <v>44</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>45</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>22</v>
@@ -1218,10 +1227,10 @@
         <v>40976</v>
       </c>
       <c r="B8" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="12" t="s">
         <v>46</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>47</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>39</v>
@@ -1232,10 +1241,10 @@
         <v>40984</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>22</v>
@@ -1246,10 +1255,10 @@
         <v>40991</v>
       </c>
       <c r="B10" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="12" t="s">
         <v>54</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>55</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>39</v>
@@ -1260,10 +1269,10 @@
         <v>41001</v>
       </c>
       <c r="B11" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="12" t="s">
         <v>59</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>60</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>22</v>
@@ -1274,10 +1283,10 @@
         <v>41015</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>39</v>
@@ -1288,10 +1297,10 @@
         <v>41029</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>22</v>
@@ -1302,13 +1311,13 @@
         <v>41036</v>
       </c>
       <c r="B14" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>69</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -1316,13 +1325,13 @@
         <v>41036</v>
       </c>
       <c r="B15" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="C15" s="12" t="s">
-        <v>73</v>
-      </c>
       <c r="D15" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1330,10 +1339,10 @@
         <v>41038</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>39</v>
@@ -1344,10 +1353,10 @@
         <v>41044</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>22</v>
@@ -1358,13 +1367,13 @@
         <v>41047</v>
       </c>
       <c r="B18" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="C18" s="12" t="s">
-        <v>82</v>
-      </c>
       <c r="D18" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1372,13 +1381,27 @@
         <v>41057</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="11">
+        <v>41064</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1398,13 +1421,13 @@
   <sheetPr codeName="Tabelle2"/>
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" customWidth="1"/>
+    <col min="1" max="1" width="7.7109375" customWidth="1"/>
     <col min="2" max="2" width="14.7109375" customWidth="1"/>
     <col min="3" max="3" width="28.5703125" customWidth="1"/>
     <col min="4" max="4" width="10.5703125" customWidth="1"/>
@@ -1471,7 +1494,7 @@
         <v>21</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D4" s="4">
         <v>100</v>
@@ -1507,17 +1530,17 @@
         <v>11</v>
       </c>
       <c r="D5" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E5" s="4">
         <v>45</v>
       </c>
       <c r="F5" s="4">
         <f t="shared" si="0"/>
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>13</v>
@@ -1525,17 +1548,19 @@
       <c r="I5" s="4">
         <v>1</v>
       </c>
-      <c r="J5" s="4"/>
+      <c r="J5" s="4">
+        <v>14</v>
+      </c>
     </row>
     <row r="6" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D6" s="4">
         <v>0</v>
@@ -1599,31 +1624,33 @@
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>87</v>
-      </c>
       <c r="D8" s="4">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E8" s="4">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="F8" s="4">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I8" s="4">
         <v>1</v>
       </c>
-      <c r="J8" s="4"/>
+      <c r="J8" s="4">
+        <v>14</v>
+      </c>
     </row>
     <row r="9" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
@@ -1687,17 +1714,19 @@
       <c r="I10" s="4">
         <v>2</v>
       </c>
-      <c r="J10" s="4"/>
+      <c r="J10" s="4">
+        <v>14</v>
+      </c>
     </row>
     <row r="11" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>8</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>52</v>
       </c>
       <c r="D11" s="4">
         <v>100</v>
@@ -1710,10 +1739,10 @@
         <v>8</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I11" s="4">
         <v>5</v>
@@ -1727,10 +1756,10 @@
         <v>9</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D12" s="4">
         <v>100</v>
@@ -1743,10 +1772,10 @@
         <v>10</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I12" s="4">
         <v>7</v>
@@ -1760,31 +1789,33 @@
         <v>10</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>75</v>
-      </c>
       <c r="D13" s="4">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E13" s="4">
         <v>40</v>
       </c>
       <c r="F13" s="4">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="G13" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H13" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>77</v>
       </c>
       <c r="I13" s="4">
         <v>11</v>
       </c>
-      <c r="J13" s="4"/>
+      <c r="J13" s="4">
+        <v>14</v>
+      </c>
     </row>
     <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
@@ -1795,11 +1826,11 @@
       <c r="D14" s="4"/>
       <c r="E14" s="4">
         <f>SUBTOTAL(109,Table1[Schadens-potenzial '[h']])</f>
-        <v>374</v>
+        <v>314</v>
       </c>
       <c r="F14" s="4">
         <f>SUBTOTAL(109,Table1[Reserven '[h']])</f>
-        <v>86.5</v>
+        <v>55</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
@@ -1809,20 +1840,20 @@
       </c>
       <c r="J14" s="4">
         <f>SUBTOTAL(103,Table1[Sprint bereinigt])</f>
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:11" s="20" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B15" s="30"/>
       <c r="C15" s="31"/>
       <c r="D15" s="18"/>
       <c r="E15" s="18"/>
       <c r="F15" s="18">
-        <f>25+8</f>
-        <v>33</v>
+        <f>25+6+6+8+10</f>
+        <v>55</v>
       </c>
       <c r="G15" s="18"/>
       <c r="H15" s="18"/>
@@ -1830,9 +1861,9 @@
       <c r="J15" s="18"/>
       <c r="K15" s="21"/>
     </row>
-    <row r="16" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A16" s="32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B16" s="33"/>
       <c r="C16" s="34"/>
@@ -1840,7 +1871,7 @@
       <c r="E16" s="18"/>
       <c r="F16" s="18">
         <f>Table1[[#Totals],[Reserven '[h']]]-F15</f>
-        <v>53.5</v>
+        <v>0</v>
       </c>
       <c r="G16" s="18"/>
       <c r="H16" s="18"/>

--- a/doc/Bericht/05_Technischer Bericht/02_Projektmanagement/Risikomanagement.xlsx
+++ b/doc/Bericht/05_Technischer Bericht/02_Projektmanagement/Risikomanagement.xlsx
@@ -13,7 +13,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Risiken!$A$3:$H$13</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -140,9 +140,6 @@
     <t>LE</t>
   </si>
   <si>
-    <t>Auf neue Risiken geprüft, leichte Anpassung an der Eintrittswahrscheinlichkeit vom Riskio 5, da laut Matrox eine Auflösung von mehr als FullHD pro Monitorausgang möglich ist.</t>
-  </si>
-  <si>
     <t>1.2</t>
   </si>
   <si>
@@ -288,14 +285,17 @@
     <t>1.16</t>
   </si>
   <si>
+    <t>Risiko 1 ist eingetreten: "HW wird nicht rechtzeitig geliefert". Deshalb muss alternatives Testsetup evaluiert werden (Schaden: 25h).
+Neue Risiken hinzugefügt (4,6,7), Schätzungen angepasst, Beschreibungen erweitert</t>
+  </si>
+  <si>
+    <t>Auf neue Risiken geprüft, leichte Anpassung der Eintrittswahrscheinlichkeit vom Riskio 5, da laut Matrox eine Auflösung von mehr als FullHD pro Monitorausgang möglich ist.</t>
+  </si>
+  <si>
     <t>Das Risiko 5: "Auflösung der Videowall ungenügend" ist für ca. 20% der Poster eingetroffen. Massnahmen dazu werden aber nicht mehr innerhalb des Zeitraums der BA umgesetzt. Dieser Punkt wurde daher in der Weiterentwicklung dokumentiert und das Schadenspotenzial auf 0 gesetzt.
-Die Risiken :2 "Fehlein-schätzung des Zeitaufwands" und 7: "Schwere Usability Test Korrekturen (zusätzlich zu Risiko 6)" sind bereinigt. 
+Die Risiken 2: "Fehleinschätzung des Zeitaufwands" und 7: "Schwere Usability Test Korrekturen (zusätzlich zu Risiko 6)" sind bereinigt. 
 Riskio 10: "Applikation läuft nicht mit vielen Elementen" ist bereinigt, da zu wenig Poster zur Verfügung standen.
 Alle Risiken sind bereinigt.</t>
-  </si>
-  <si>
-    <t>Risiko 1 ist eingetreten: "HW wird nicht rechtzeitig geliefert". Deshalb muss alternatives Testsetup evaluiert werden (Schaden: 25h).
-Neue Risiken hinzugefügt (4,6,7), Schätzungen angepasst, Beschreibungen erweitert</t>
   </si>
 </sst>
 </file>
@@ -816,16 +816,16 @@
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:J14" totalsRowCount="1" headerRowDxfId="22" dataDxfId="21" totalsRowDxfId="20">
   <tableColumns count="10">
-    <tableColumn id="1" name="Nr." totalsRowLabel="Total" dataDxfId="19" totalsRowDxfId="9"/>
-    <tableColumn id="2" name="Risiko" dataDxfId="18" totalsRowDxfId="8"/>
-    <tableColumn id="3" name="Beschreibung" dataDxfId="17" totalsRowDxfId="7"/>
-    <tableColumn id="4" name="W'keit des Eintretens [%]" dataDxfId="16" totalsRowDxfId="6"/>
-    <tableColumn id="5" name="Schadens-potenzial [h]" totalsRowFunction="sum" dataDxfId="15" totalsRowDxfId="5"/>
-    <tableColumn id="6" name="Reserven [h]" totalsRowFunction="sum" dataDxfId="14" totalsRowDxfId="4"/>
-    <tableColumn id="7" name="Vermeidungs- und Verminderungsmassnahmen" dataDxfId="13" totalsRowDxfId="3"/>
-    <tableColumn id="8" name="Aktionen beim Eintreffen" dataDxfId="12" totalsRowDxfId="2"/>
-    <tableColumn id="10" name="Sprint neu" totalsRowFunction="count" dataDxfId="11" totalsRowDxfId="1"/>
-    <tableColumn id="11" name="Sprint bereinigt" totalsRowFunction="count" dataDxfId="10" totalsRowDxfId="0"/>
+    <tableColumn id="1" name="Nr." totalsRowLabel="Total" dataDxfId="19" totalsRowDxfId="18"/>
+    <tableColumn id="2" name="Risiko" dataDxfId="17" totalsRowDxfId="16"/>
+    <tableColumn id="3" name="Beschreibung" dataDxfId="15" totalsRowDxfId="14"/>
+    <tableColumn id="4" name="W'keit des Eintretens [%]" dataDxfId="13" totalsRowDxfId="12"/>
+    <tableColumn id="5" name="Schadens-potenzial [h]" totalsRowFunction="sum" dataDxfId="11" totalsRowDxfId="10"/>
+    <tableColumn id="6" name="Reserven [h]" totalsRowFunction="sum" dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="7" name="Vermeidungs- und Verminderungsmassnahmen" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="8" name="Aktionen beim Eintreffen" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="10" name="Sprint neu" totalsRowFunction="count" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="11" name="Sprint bereinigt" totalsRowFunction="count" dataDxfId="1" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1120,8 +1120,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1188,7 +1188,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>39</v>
@@ -1199,10 +1199,10 @@
         <v>40970</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>39</v>
@@ -1213,10 +1213,10 @@
         <v>40970</v>
       </c>
       <c r="B7" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="12" t="s">
         <v>43</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>44</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>22</v>
@@ -1227,10 +1227,10 @@
         <v>40976</v>
       </c>
       <c r="B8" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="12" t="s">
         <v>45</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>46</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>39</v>
@@ -1241,10 +1241,10 @@
         <v>40984</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>22</v>
@@ -1255,10 +1255,10 @@
         <v>40991</v>
       </c>
       <c r="B10" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="12" t="s">
         <v>53</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>54</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>39</v>
@@ -1269,10 +1269,10 @@
         <v>41001</v>
       </c>
       <c r="B11" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="12" t="s">
         <v>58</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>59</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>22</v>
@@ -1283,10 +1283,10 @@
         <v>41015</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>39</v>
@@ -1297,10 +1297,10 @@
         <v>41029</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>22</v>
@@ -1311,13 +1311,13 @@
         <v>41036</v>
       </c>
       <c r="B14" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -1325,13 +1325,13 @@
         <v>41036</v>
       </c>
       <c r="B15" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="C15" s="12" t="s">
-        <v>72</v>
-      </c>
       <c r="D15" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1339,10 +1339,10 @@
         <v>41038</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>39</v>
@@ -1353,10 +1353,10 @@
         <v>41044</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>22</v>
@@ -1367,13 +1367,13 @@
         <v>41047</v>
       </c>
       <c r="B18" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="C18" s="12" t="s">
-        <v>81</v>
-      </c>
       <c r="D18" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1381,13 +1381,13 @@
         <v>41057</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="135" customHeight="1" x14ac:dyDescent="0.25">
@@ -1395,10 +1395,10 @@
         <v>41064</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>22</v>
@@ -1494,7 +1494,7 @@
         <v>21</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D4" s="4">
         <v>100</v>
@@ -1540,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>13</v>
@@ -1557,10 +1557,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D6" s="4">
         <v>0</v>
@@ -1624,10 +1624,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>86</v>
       </c>
       <c r="D8" s="4">
         <v>20</v>
@@ -1640,10 +1640,10 @@
         <v>0</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I8" s="4">
         <v>1</v>
@@ -1723,10 +1723,10 @@
         <v>8</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>51</v>
       </c>
       <c r="D11" s="4">
         <v>100</v>
@@ -1739,10 +1739,10 @@
         <v>8</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I11" s="4">
         <v>5</v>
@@ -1756,10 +1756,10 @@
         <v>9</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D12" s="4">
         <v>100</v>
@@ -1772,10 +1772,10 @@
         <v>10</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I12" s="4">
         <v>7</v>
@@ -1789,10 +1789,10 @@
         <v>10</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>73</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>74</v>
       </c>
       <c r="D13" s="4">
         <v>0</v>
@@ -1805,10 +1805,10 @@
         <v>0</v>
       </c>
       <c r="G13" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H13" s="4" t="s">
         <v>75</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>76</v>
       </c>
       <c r="I13" s="4">
         <v>11</v>
@@ -1845,7 +1845,7 @@
     </row>
     <row r="15" spans="1:11" s="20" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B15" s="30"/>
       <c r="C15" s="31"/>
@@ -1863,7 +1863,7 @@
     </row>
     <row r="16" spans="1:11" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A16" s="32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B16" s="33"/>
       <c r="C16" s="34"/>

--- a/doc/Bericht/05_Technischer Bericht/02_Projektmanagement/Risikomanagement.xlsx
+++ b/doc/Bericht/05_Technischer Bericht/02_Projektmanagement/Risikomanagement.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="30" windowWidth="12390" windowHeight="11955"/>
+    <workbookView xWindow="-15" yWindow="30" windowWidth="12390" windowHeight="11955" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Änderungsgeschichte" sheetId="3" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="93">
   <si>
     <t>Risikomanagement</t>
   </si>
@@ -296,13 +296,19 @@
 Die Risiken 2: "Fehleinschätzung des Zeitaufwands" und 7: "Schwere Usability Test Korrekturen (zusätzlich zu Risiko 6)" sind bereinigt. 
 Riskio 10: "Applikation läuft nicht mit vielen Elementen" ist bereinigt, da zu wenig Poster zur Verfügung standen.
 Alle Risiken sind bereinigt.</t>
+  </si>
+  <si>
+    <t>1.17</t>
+  </si>
+  <si>
+    <t>Riskio 10: "Applikation läuft nicht mit vielen Elementen" besteht zwar noch, ist aber erst für die Weiterentwicklung wieder relevant. Somit wird das Schadenspotenzial auf 0 gesetzt und in der Weiterentwicklung dokumentiert.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -358,23 +364,6 @@
     </font>
     <font>
       <b/>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <strike/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <strike/>
       <u/>
       <sz val="11"/>
       <color theme="1"/>
@@ -507,7 +496,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -565,11 +554,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -597,6 +581,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="20% - Accent4" xfId="3" builtinId="42" customBuiltin="1"/>
@@ -802,7 +790,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A3:D20" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A3:D21" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
   <tableColumns count="4">
     <tableColumn id="1" name="Datum" dataDxfId="26"/>
     <tableColumn id="2" name="Version" dataDxfId="25"/>
@@ -816,16 +804,16 @@
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:J14" totalsRowCount="1" headerRowDxfId="22" dataDxfId="21" totalsRowDxfId="20">
   <tableColumns count="10">
-    <tableColumn id="1" name="Nr." totalsRowLabel="Total" dataDxfId="19" totalsRowDxfId="18"/>
-    <tableColumn id="2" name="Risiko" dataDxfId="17" totalsRowDxfId="16"/>
-    <tableColumn id="3" name="Beschreibung" dataDxfId="15" totalsRowDxfId="14"/>
-    <tableColumn id="4" name="W'keit des Eintretens [%]" dataDxfId="13" totalsRowDxfId="12"/>
-    <tableColumn id="5" name="Schadens-potenzial [h]" totalsRowFunction="sum" dataDxfId="11" totalsRowDxfId="10"/>
-    <tableColumn id="6" name="Reserven [h]" totalsRowFunction="sum" dataDxfId="9" totalsRowDxfId="8"/>
-    <tableColumn id="7" name="Vermeidungs- und Verminderungsmassnahmen" dataDxfId="7" totalsRowDxfId="6"/>
-    <tableColumn id="8" name="Aktionen beim Eintreffen" dataDxfId="5" totalsRowDxfId="4"/>
-    <tableColumn id="10" name="Sprint neu" totalsRowFunction="count" dataDxfId="3" totalsRowDxfId="2"/>
-    <tableColumn id="11" name="Sprint bereinigt" totalsRowFunction="count" dataDxfId="1" totalsRowDxfId="0"/>
+    <tableColumn id="1" name="Nr." totalsRowLabel="Total" dataDxfId="19" totalsRowDxfId="9"/>
+    <tableColumn id="2" name="Risiko" dataDxfId="18" totalsRowDxfId="8"/>
+    <tableColumn id="3" name="Beschreibung" dataDxfId="17" totalsRowDxfId="7"/>
+    <tableColumn id="4" name="W'keit des Eintretens [%]" dataDxfId="16" totalsRowDxfId="6"/>
+    <tableColumn id="5" name="Schadens-potenzial [h]" totalsRowFunction="sum" dataDxfId="15" totalsRowDxfId="5"/>
+    <tableColumn id="6" name="Reserven [h]" totalsRowFunction="sum" dataDxfId="14" totalsRowDxfId="4"/>
+    <tableColumn id="7" name="Vermeidungs- und Verminderungsmassnahmen" dataDxfId="13" totalsRowDxfId="3"/>
+    <tableColumn id="8" name="Aktionen beim Eintreffen" dataDxfId="12" totalsRowDxfId="2"/>
+    <tableColumn id="10" name="Sprint neu" totalsRowFunction="count" dataDxfId="11" totalsRowDxfId="1"/>
+    <tableColumn id="11" name="Sprint bereinigt" totalsRowFunction="count" dataDxfId="10" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1118,10 +1106,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1133,12 +1121,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
       <c r="E1" s="9"/>
       <c r="F1" s="9"/>
       <c r="G1" s="9"/>
@@ -1401,6 +1389,20 @@
         <v>90</v>
       </c>
       <c r="D20" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A21" s="11">
+        <v>41073</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1421,8 +1423,8 @@
   <sheetPr codeName="Tabelle2"/>
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1441,18 +1443,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
     </row>
     <row r="3" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -1585,39 +1587,39 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="25" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="23">
+    <row r="7" spans="1:11" s="33" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="32">
         <v>4</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="23">
+      <c r="D7" s="32">
         <v>0</v>
       </c>
-      <c r="E7" s="23">
+      <c r="E7" s="32">
         <v>30</v>
       </c>
-      <c r="F7" s="23">
+      <c r="F7" s="32">
         <f t="shared" ref="F7" si="1">(D7/100)*E7</f>
         <v>0</v>
       </c>
-      <c r="G7" s="23" t="s">
+      <c r="G7" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="23" t="s">
+      <c r="H7" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="I7" s="23">
+      <c r="I7" s="32">
         <v>2</v>
       </c>
-      <c r="J7" s="23">
+      <c r="J7" s="32">
         <v>6</v>
       </c>
-      <c r="K7" s="24"/>
+      <c r="K7" s="10"/>
     </row>
     <row r="8" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
@@ -1795,10 +1797,10 @@
         <v>73</v>
       </c>
       <c r="D13" s="4">
+        <v>30</v>
+      </c>
+      <c r="E13" s="4">
         <v>0</v>
-      </c>
-      <c r="E13" s="4">
-        <v>40</v>
       </c>
       <c r="F13" s="4">
         <f t="shared" si="2"/>
@@ -1826,7 +1828,7 @@
       <c r="D14" s="4"/>
       <c r="E14" s="4">
         <f>SUBTOTAL(109,Table1[Schadens-potenzial '[h']])</f>
-        <v>314</v>
+        <v>274</v>
       </c>
       <c r="F14" s="4">
         <f>SUBTOTAL(109,Table1[Reserven '[h']])</f>
@@ -1844,11 +1846,11 @@
       </c>
     </row>
     <row r="15" spans="1:11" s="20" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="B15" s="30"/>
-      <c r="C15" s="31"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="28"/>
       <c r="D15" s="18"/>
       <c r="E15" s="18"/>
       <c r="F15" s="18">
@@ -1862,11 +1864,11 @@
       <c r="K15" s="21"/>
     </row>
     <row r="16" spans="1:11" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="32" t="s">
+      <c r="A16" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="B16" s="33"/>
-      <c r="C16" s="34"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="31"/>
       <c r="D16" s="18"/>
       <c r="E16" s="18"/>
       <c r="F16" s="18">
@@ -1899,9 +1901,9 @@
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="27"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="27"/>
+      <c r="A19" s="24"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
       <c r="D19" s="19"/>
       <c r="E19" s="19"/>
       <c r="F19" s="22"/>
@@ -1909,9 +1911,9 @@
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="27"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
+      <c r="A20" s="24"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="22"/>
